--- a/model/Outputs/8. Fixed RE/With PV/Output Files/40/Output_2_31.xlsx
+++ b/model/Outputs/8. Fixed RE/With PV/Output Files/40/Output_2_31.xlsx
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3426254.927113064</v>
+        <v>3426254.927113044</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>80663.73099500453</v>
+        <v>16052082.46800645</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>80663.73099500453</v>
+        <v>16052082.46800645</v>
       </c>
     </row>
     <row r="9">
@@ -531,7 +531,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>65614.34050177233</v>
+        <v>3940022.790763407</v>
       </c>
     </row>
     <row r="10">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>65614.34050177233</v>
+        <v>3940022.790763407</v>
       </c>
     </row>
     <row r="11">
@@ -561,7 +561,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>1494146826.703394</v>
+        <v>56586889.23296173</v>
       </c>
     </row>
   </sheetData>
@@ -664,7 +664,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>480.610968662598</v>
+        <v>481.9993129555745</v>
       </c>
       <c r="C2" t="n">
         <v>449.4745782429939</v>
@@ -730,7 +730,7 @@
         <v>638.3734759809475</v>
       </c>
       <c r="X2" t="n">
-        <v>592.2818334606677</v>
+        <v>590.8934891676897</v>
       </c>
       <c r="Y2" t="n">
         <v>511.3174326828064</v>
@@ -749,7 +749,7 @@
         <v>361.0999124455193</v>
       </c>
       <c r="D3" t="n">
-        <v>346.4039869401295</v>
+        <v>347.9376868977026</v>
       </c>
       <c r="E3" t="n">
         <v>342.6720972219126</v>
@@ -758,7 +758,7 @@
         <v>339.6362423378769</v>
       </c>
       <c r="G3" t="n">
-        <v>322.5970075731406</v>
+        <v>321.0633076155676</v>
       </c>
       <c r="H3" t="n">
         <v>301.8178796392513</v>
@@ -919,7 +919,7 @@
         <v>397.8840054528454</v>
       </c>
       <c r="H5" t="n">
-        <v>346.4706963200988</v>
+        <v>346.470696320097</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -998,10 +998,10 @@
         <v>322.5970075731406</v>
       </c>
       <c r="H6" t="n">
-        <v>300.2841796816783</v>
+        <v>301.8178796392513</v>
       </c>
       <c r="I6" t="n">
-        <v>108.929687778141</v>
+        <v>107.3959878205679</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1204,10 +1204,10 @@
         <v>638.3734759809475</v>
       </c>
       <c r="X8" t="n">
-        <v>592.2818334606677</v>
+        <v>590.8934891676897</v>
       </c>
       <c r="Y8" t="n">
-        <v>509.92908838983</v>
+        <v>511.3174326828064</v>
       </c>
     </row>
     <row r="9">
@@ -1232,7 +1232,7 @@
         <v>339.6362423378769</v>
       </c>
       <c r="G9" t="n">
-        <v>322.5970075731406</v>
+        <v>321.0633076155676</v>
       </c>
       <c r="H9" t="n">
         <v>301.8178796392513</v>
@@ -1286,7 +1286,7 @@
         <v>419.8627394453875</v>
       </c>
       <c r="Y9" t="n">
-        <v>397.8576928085612</v>
+        <v>399.3913927661343</v>
       </c>
     </row>
     <row r="10">
@@ -1393,7 +1393,7 @@
         <v>397.8840054528454</v>
       </c>
       <c r="H11" t="n">
-        <v>346.4706963201366</v>
+        <v>347.8590406130752</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1429,7 +1429,7 @@
         <v>361.0088210686545</v>
       </c>
       <c r="T11" t="n">
-        <v>560.964918411981</v>
+        <v>559.576574119003</v>
       </c>
       <c r="U11" t="n">
         <v>648.751427201877</v>
@@ -1533,7 +1533,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>165.2127885434264</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
@@ -1551,7 +1551,7 @@
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>165.2127885434264</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1627,10 +1627,10 @@
         <v>404.8896287080119</v>
       </c>
       <c r="G14" t="n">
-        <v>397.8840054528454</v>
+        <v>396.4956611598672</v>
       </c>
       <c r="H14" t="n">
-        <v>346.4706963200988</v>
+        <v>347.8590406130752</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1776,19 +1776,19 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
+        <v>0</v>
+      </c>
+      <c r="E16" t="n">
+        <v>0</v>
+      </c>
+      <c r="F16" t="n">
+        <v>0</v>
+      </c>
+      <c r="G16" t="n">
+        <v>0</v>
+      </c>
+      <c r="H16" t="n">
         <v>165.2127885434264</v>
-      </c>
-      <c r="E16" t="n">
-        <v>0</v>
-      </c>
-      <c r="F16" t="n">
-        <v>0</v>
-      </c>
-      <c r="G16" t="n">
-        <v>0</v>
-      </c>
-      <c r="H16" t="n">
-        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1867,7 +1867,7 @@
         <v>397.8840054528454</v>
       </c>
       <c r="H17" t="n">
-        <v>347.8590406130752</v>
+        <v>346.470696320097</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1900,7 +1900,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>359.620476775678</v>
+        <v>361.0088210686545</v>
       </c>
       <c r="T17" t="n">
         <v>560.964918411981</v>
@@ -2016,19 +2016,19 @@
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>67.808644398718</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>165.2127885434264</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>97.40414414470841</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2098,13 +2098,13 @@
         <v>404.3632896068686</v>
       </c>
       <c r="F20" t="n">
-        <v>403.5012844150354</v>
+        <v>404.8896287080119</v>
       </c>
       <c r="G20" t="n">
         <v>397.8840054528454</v>
       </c>
       <c r="H20" t="n">
-        <v>347.8590406130752</v>
+        <v>346.4706963200988</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2262,55 +2262,55 @@
         <v>0</v>
       </c>
       <c r="H22" t="n">
+        <v>0</v>
+      </c>
+      <c r="I22" t="n">
+        <v>0</v>
+      </c>
+      <c r="J22" t="n">
+        <v>0</v>
+      </c>
+      <c r="K22" t="n">
+        <v>0</v>
+      </c>
+      <c r="L22" t="n">
+        <v>0</v>
+      </c>
+      <c r="M22" t="n">
+        <v>0</v>
+      </c>
+      <c r="N22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O22" t="n">
+        <v>0</v>
+      </c>
+      <c r="P22" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q22" t="n">
+        <v>0</v>
+      </c>
+      <c r="R22" t="n">
+        <v>0</v>
+      </c>
+      <c r="S22" t="n">
+        <v>0</v>
+      </c>
+      <c r="T22" t="n">
+        <v>0</v>
+      </c>
+      <c r="U22" t="n">
+        <v>0</v>
+      </c>
+      <c r="V22" t="n">
+        <v>0</v>
+      </c>
+      <c r="W22" t="n">
+        <v>0</v>
+      </c>
+      <c r="X22" t="n">
         <v>165.2127885434264</v>
-      </c>
-      <c r="I22" t="n">
-        <v>0</v>
-      </c>
-      <c r="J22" t="n">
-        <v>0</v>
-      </c>
-      <c r="K22" t="n">
-        <v>0</v>
-      </c>
-      <c r="L22" t="n">
-        <v>0</v>
-      </c>
-      <c r="M22" t="n">
-        <v>0</v>
-      </c>
-      <c r="N22" t="n">
-        <v>0</v>
-      </c>
-      <c r="O22" t="n">
-        <v>0</v>
-      </c>
-      <c r="P22" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q22" t="n">
-        <v>0</v>
-      </c>
-      <c r="R22" t="n">
-        <v>0</v>
-      </c>
-      <c r="S22" t="n">
-        <v>0</v>
-      </c>
-      <c r="T22" t="n">
-        <v>0</v>
-      </c>
-      <c r="U22" t="n">
-        <v>0</v>
-      </c>
-      <c r="V22" t="n">
-        <v>0</v>
-      </c>
-      <c r="W22" t="n">
-        <v>0</v>
-      </c>
-      <c r="X22" t="n">
-        <v>0</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -2481,25 +2481,25 @@
         </is>
       </c>
       <c r="B25" t="n">
+        <v>0</v>
+      </c>
+      <c r="C25" t="n">
+        <v>0</v>
+      </c>
+      <c r="D25" t="n">
+        <v>0</v>
+      </c>
+      <c r="E25" t="n">
+        <v>0</v>
+      </c>
+      <c r="F25" t="n">
+        <v>0</v>
+      </c>
+      <c r="G25" t="n">
+        <v>0</v>
+      </c>
+      <c r="H25" t="n">
         <v>165.2127885434264</v>
-      </c>
-      <c r="C25" t="n">
-        <v>0</v>
-      </c>
-      <c r="D25" t="n">
-        <v>0</v>
-      </c>
-      <c r="E25" t="n">
-        <v>0</v>
-      </c>
-      <c r="F25" t="n">
-        <v>0</v>
-      </c>
-      <c r="G25" t="n">
-        <v>0</v>
-      </c>
-      <c r="H25" t="n">
-        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2578,7 +2578,7 @@
         <v>397.8840054528454</v>
       </c>
       <c r="H26" t="n">
-        <v>346.4706963205505</v>
+        <v>346.470696320097</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2733,10 +2733,10 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
+        <v>0</v>
+      </c>
+      <c r="H28" t="n">
         <v>165.2127885434264</v>
-      </c>
-      <c r="H28" t="n">
-        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2812,7 +2812,7 @@
         <v>404.8896287078409</v>
       </c>
       <c r="G29" t="n">
-        <v>397.8840054526744</v>
+        <v>396.4956611619193</v>
       </c>
       <c r="H29" t="n">
         <v>347.8590406129042</v>
@@ -2854,10 +2854,10 @@
         <v>560.96491841181</v>
       </c>
       <c r="U29" t="n">
-        <v>648.7514272017061</v>
+        <v>648.751427201877</v>
       </c>
       <c r="V29" t="n">
-        <v>628.4626798765227</v>
+        <v>629.8510241666529</v>
       </c>
       <c r="W29" t="n">
         <v>638.3734759807766</v>
@@ -2924,10 +2924,10 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>350.6276822413036</v>
+        <v>352.1613821980396</v>
       </c>
       <c r="S30" t="n">
-        <v>408.192915058951</v>
+        <v>406.6592151025505</v>
       </c>
       <c r="T30" t="n">
         <v>392.6911708778912</v>
@@ -2955,22 +2955,22 @@
         </is>
       </c>
       <c r="B31" t="n">
+        <v>0</v>
+      </c>
+      <c r="C31" t="n">
+        <v>0</v>
+      </c>
+      <c r="D31" t="n">
+        <v>0</v>
+      </c>
+      <c r="E31" t="n">
+        <v>0</v>
+      </c>
+      <c r="F31" t="n">
+        <v>0</v>
+      </c>
+      <c r="G31" t="n">
         <v>165.2127885434264</v>
-      </c>
-      <c r="C31" t="n">
-        <v>0</v>
-      </c>
-      <c r="D31" t="n">
-        <v>0</v>
-      </c>
-      <c r="E31" t="n">
-        <v>0</v>
-      </c>
-      <c r="F31" t="n">
-        <v>0</v>
-      </c>
-      <c r="G31" t="n">
-        <v>0</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -3052,7 +3052,7 @@
         <v>397.8840054528454</v>
       </c>
       <c r="H32" t="n">
-        <v>346.4706963205505</v>
+        <v>346.4706963200988</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -3161,10 +3161,10 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>350.6276822404662</v>
+        <v>352.1613821980396</v>
       </c>
       <c r="S33" t="n">
-        <v>408.192915058951</v>
+        <v>406.6592151013782</v>
       </c>
       <c r="T33" t="n">
         <v>392.6911708778912</v>
@@ -3322,7 +3322,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>361.0088210686545</v>
+        <v>359.6204767756762</v>
       </c>
       <c r="T35" t="n">
         <v>560.964918411981</v>
@@ -3334,7 +3334,7 @@
         <v>629.8510241668239</v>
       </c>
       <c r="W35" t="n">
-        <v>636.9851316884224</v>
+        <v>638.3734759809475</v>
       </c>
       <c r="X35" t="n">
         <v>592.2818334606677</v>
@@ -3438,7 +3438,7 @@
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>165.2127885434264</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
@@ -3447,7 +3447,7 @@
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>165.2127885434264</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3559,13 +3559,13 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>359.62047677613</v>
+        <v>361.0088210686545</v>
       </c>
       <c r="T38" t="n">
         <v>560.964918411981</v>
       </c>
       <c r="U38" t="n">
-        <v>648.751427201877</v>
+        <v>647.3630829088994</v>
       </c>
       <c r="V38" t="n">
         <v>629.8510241668239</v>
@@ -3726,10 +3726,10 @@
         <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>165.2127885434264</v>
       </c>
       <c r="W40" t="n">
-        <v>165.2127885434264</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
@@ -3754,13 +3754,13 @@
         <v>410.3391557398498</v>
       </c>
       <c r="E41" t="n">
-        <v>402.9749453143438</v>
+        <v>404.3632896068686</v>
       </c>
       <c r="F41" t="n">
         <v>404.8896287080119</v>
       </c>
       <c r="G41" t="n">
-        <v>397.8840054528454</v>
+        <v>396.4956611598672</v>
       </c>
       <c r="H41" t="n">
         <v>347.8590406130752</v>
@@ -3872,7 +3872,7 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>352.1613821980396</v>
+        <v>350.6276822404662</v>
       </c>
       <c r="S42" t="n">
         <v>408.192915058951</v>
@@ -3887,7 +3887,7 @@
         <v>414.5106671915202</v>
       </c>
       <c r="W42" t="n">
-        <v>430.8394429522557</v>
+        <v>432.3731429098285</v>
       </c>
       <c r="X42" t="n">
         <v>419.8627394453875</v>
@@ -3915,7 +3915,7 @@
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>165.2127885434264</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
@@ -3960,7 +3960,7 @@
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>150.8146863564251</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -3972,7 +3972,7 @@
         <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>14.39810218700129</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -3985,7 +3985,7 @@
         <v>481.9993129555745</v>
       </c>
       <c r="C44" t="n">
-        <v>448.0862339500082</v>
+        <v>449.4745782429939</v>
       </c>
       <c r="D44" t="n">
         <v>410.3391557398498</v>
@@ -4036,7 +4036,7 @@
         <v>361.0088210686545</v>
       </c>
       <c r="T44" t="n">
-        <v>560.964918411981</v>
+        <v>559.576574119003</v>
       </c>
       <c r="U44" t="n">
         <v>648.751427201877</v>
@@ -4109,10 +4109,10 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>350.6276822404662</v>
+        <v>352.1613821980396</v>
       </c>
       <c r="S45" t="n">
-        <v>408.192915058951</v>
+        <v>406.6592151013782</v>
       </c>
       <c r="T45" t="n">
         <v>392.6911708778912</v>
@@ -4149,13 +4149,13 @@
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>165.2127885434264</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>165.2127885434264</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -4339,49 +4339,49 @@
         <v>1101.367131735718</v>
       </c>
       <c r="K2" t="n">
-        <v>2550.716641651425</v>
+        <v>1841.010275303557</v>
       </c>
       <c r="L2" t="n">
-        <v>3468.309364968008</v>
+        <v>2758.60299862014</v>
       </c>
       <c r="M2" t="n">
-        <v>3950.48856448151</v>
+        <v>3240.782198133642</v>
       </c>
       <c r="N2" t="n">
-        <v>4515.531628354182</v>
+        <v>3805.825262006314</v>
       </c>
       <c r="O2" t="n">
-        <v>5425.686511294926</v>
+        <v>4715.980144947059</v>
       </c>
       <c r="P2" t="n">
-        <v>6261.55383939234</v>
+        <v>6413.719626391855</v>
       </c>
       <c r="Q2" t="n">
-        <v>7048.000000000002</v>
+        <v>6931.116362236997</v>
       </c>
       <c r="R2" t="n">
-        <v>7048.000000000002</v>
+        <v>7048</v>
       </c>
       <c r="S2" t="n">
-        <v>6683.344625183179</v>
+        <v>6683.344625183177</v>
       </c>
       <c r="T2" t="n">
-        <v>6116.713394464006</v>
+        <v>6116.713394464005</v>
       </c>
       <c r="U2" t="n">
-        <v>5461.408922542918</v>
+        <v>5461.408922542916</v>
       </c>
       <c r="V2" t="n">
-        <v>4825.195766818853</v>
+        <v>4825.195766818852</v>
       </c>
       <c r="W2" t="n">
-        <v>4180.374073908805</v>
+        <v>4180.374073908803</v>
       </c>
       <c r="X2" t="n">
-        <v>3582.109595665706</v>
+        <v>3583.51196363841</v>
       </c>
       <c r="Y2" t="n">
-        <v>3065.627340430548</v>
+        <v>3067.029708403252</v>
       </c>
     </row>
     <row r="3">
@@ -4397,13 +4397,13 @@
         <v>1920.815456050962</v>
       </c>
       <c r="D3" t="n">
-        <v>1570.91243893972</v>
+        <v>1569.363247063383</v>
       </c>
       <c r="E3" t="n">
-        <v>1224.779007402434</v>
+        <v>1223.229815526098</v>
       </c>
       <c r="F3" t="n">
-        <v>881.7120959500332</v>
+        <v>880.1629040736968</v>
       </c>
       <c r="G3" t="n">
         <v>555.8565327448407</v>
@@ -4494,25 +4494,25 @@
         <v>140.96</v>
       </c>
       <c r="J4" t="n">
-        <v>440.0999956178874</v>
+        <v>290.4466099967136</v>
       </c>
       <c r="K4" t="n">
-        <v>457.4949902104935</v>
+        <v>457.4949902104934</v>
       </c>
       <c r="L4" t="n">
-        <v>457.4949902104935</v>
+        <v>457.4949902104934</v>
       </c>
       <c r="M4" t="n">
-        <v>457.4949902104935</v>
+        <v>457.4949902104934</v>
       </c>
       <c r="N4" t="n">
-        <v>457.4949902104935</v>
+        <v>457.4949902104934</v>
       </c>
       <c r="O4" t="n">
-        <v>457.4949902104935</v>
+        <v>457.4949902104934</v>
       </c>
       <c r="P4" t="n">
-        <v>457.4949902104935</v>
+        <v>457.4949902104934</v>
       </c>
       <c r="Q4" t="n">
         <v>351.2038120028187</v>
@@ -4549,22 +4549,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>2578.75934754613</v>
+        <v>2578.759347546128</v>
       </c>
       <c r="C5" t="n">
-        <v>2124.744622048156</v>
+        <v>2124.744622048154</v>
       </c>
       <c r="D5" t="n">
-        <v>1710.260626351338</v>
+        <v>1710.260626351336</v>
       </c>
       <c r="E5" t="n">
-        <v>1301.812859071673</v>
+        <v>1301.812859071671</v>
       </c>
       <c r="F5" t="n">
-        <v>892.8334361342871</v>
+        <v>892.8334361342853</v>
       </c>
       <c r="G5" t="n">
-        <v>490.9304003233322</v>
+        <v>490.9304003233303</v>
       </c>
       <c r="H5" t="n">
         <v>140.96</v>
@@ -4573,52 +4573,52 @@
         <v>216.5482970397704</v>
       </c>
       <c r="J5" t="n">
-        <v>1101.367131735718</v>
+        <v>675.3654425154225</v>
       </c>
       <c r="K5" t="n">
-        <v>2550.716641651425</v>
+        <v>1415.008586083262</v>
       </c>
       <c r="L5" t="n">
-        <v>3797.935015773448</v>
+        <v>2631.383042915614</v>
       </c>
       <c r="M5" t="n">
-        <v>4280.114215286951</v>
+        <v>4163.230577523946</v>
       </c>
       <c r="N5" t="n">
-        <v>4845.157279159623</v>
+        <v>4728.273641396618</v>
       </c>
       <c r="O5" t="n">
-        <v>5755.312162100367</v>
+        <v>5638.428524337362</v>
       </c>
       <c r="P5" t="n">
-        <v>6591.17949019778</v>
+        <v>6474.295852434775</v>
       </c>
       <c r="Q5" t="n">
-        <v>7048.000000000002</v>
+        <v>6931.116362236997</v>
       </c>
       <c r="R5" t="n">
-        <v>7048.000000000002</v>
+        <v>7048</v>
       </c>
       <c r="S5" t="n">
-        <v>6683.344625183179</v>
+        <v>6683.344625183177</v>
       </c>
       <c r="T5" t="n">
-        <v>6116.713394464006</v>
+        <v>6116.713394464005</v>
       </c>
       <c r="U5" t="n">
-        <v>5461.408922542918</v>
+        <v>5461.408922542916</v>
       </c>
       <c r="V5" t="n">
-        <v>4825.195766818853</v>
+        <v>4825.195766818852</v>
       </c>
       <c r="W5" t="n">
-        <v>4180.374073908805</v>
+        <v>4180.374073908803</v>
       </c>
       <c r="X5" t="n">
-        <v>3582.109595665706</v>
+        <v>3582.109595665705</v>
       </c>
       <c r="Y5" t="n">
-        <v>3065.627340430548</v>
+        <v>3065.627340430547</v>
       </c>
     </row>
     <row r="6">
@@ -4646,7 +4646,7 @@
         <v>554.3073408685043</v>
       </c>
       <c r="H6" t="n">
-        <v>250.9899876546879</v>
+        <v>249.4407957783515</v>
       </c>
       <c r="I6" t="n">
         <v>140.96</v>
@@ -4722,22 +4722,22 @@
         <v>140.96</v>
       </c>
       <c r="G7" t="n">
-        <v>140.96</v>
+        <v>290.6133856211738</v>
       </c>
       <c r="H7" t="n">
-        <v>140.96</v>
+        <v>290.6133856211738</v>
       </c>
       <c r="I7" t="n">
-        <v>140.96</v>
+        <v>290.6133856211738</v>
       </c>
       <c r="J7" t="n">
-        <v>290.4466099967136</v>
+        <v>440.0999956178874</v>
       </c>
       <c r="K7" t="n">
-        <v>307.8416045893197</v>
+        <v>457.4949902104935</v>
       </c>
       <c r="L7" t="n">
-        <v>307.8416045893197</v>
+        <v>457.4949902104935</v>
       </c>
       <c r="M7" t="n">
         <v>457.4949902104935</v>
@@ -4813,46 +4813,46 @@
         <v>675.3654425154225</v>
       </c>
       <c r="K8" t="n">
-        <v>1830.673957362036</v>
+        <v>1415.008586083262</v>
       </c>
       <c r="L8" t="n">
-        <v>2748.266680678619</v>
+        <v>2332.601309399844</v>
       </c>
       <c r="M8" t="n">
-        <v>4280.114215286951</v>
+        <v>3301.358424176563</v>
       </c>
       <c r="N8" t="n">
-        <v>4845.157279159623</v>
+        <v>3866.401488049235</v>
       </c>
       <c r="O8" t="n">
-        <v>5755.312162100367</v>
+        <v>4776.556370989979</v>
       </c>
       <c r="P8" t="n">
-        <v>6591.17949019778</v>
+        <v>6474.295852434775</v>
       </c>
       <c r="Q8" t="n">
-        <v>7048.000000000002</v>
+        <v>6931.116362236997</v>
       </c>
       <c r="R8" t="n">
-        <v>7048.000000000002</v>
+        <v>7048</v>
       </c>
       <c r="S8" t="n">
-        <v>6683.344625183179</v>
+        <v>6683.344625183177</v>
       </c>
       <c r="T8" t="n">
-        <v>6116.713394464006</v>
+        <v>6116.713394464005</v>
       </c>
       <c r="U8" t="n">
-        <v>5461.408922542918</v>
+        <v>5461.408922542916</v>
       </c>
       <c r="V8" t="n">
-        <v>4825.195766818853</v>
+        <v>4825.195766818852</v>
       </c>
       <c r="W8" t="n">
-        <v>4180.374073908805</v>
+        <v>4180.374073908803</v>
       </c>
       <c r="X8" t="n">
-        <v>3582.109595665706</v>
+        <v>3583.51196363841</v>
       </c>
       <c r="Y8" t="n">
         <v>3067.029708403252</v>
@@ -4865,19 +4865,19 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>2287.112034235904</v>
+        <v>2285.562842359567</v>
       </c>
       <c r="C9" t="n">
-        <v>1922.364647927298</v>
+        <v>1920.815456050962</v>
       </c>
       <c r="D9" t="n">
-        <v>1570.91243893972</v>
+        <v>1569.363247063383</v>
       </c>
       <c r="E9" t="n">
-        <v>1224.779007402434</v>
+        <v>1223.229815526098</v>
       </c>
       <c r="F9" t="n">
-        <v>881.7120959500332</v>
+        <v>880.1629040736968</v>
       </c>
       <c r="G9" t="n">
         <v>555.8565327448407</v>
@@ -4934,7 +4934,7 @@
         <v>3077.429457927709</v>
       </c>
       <c r="Y9" t="n">
-        <v>2675.553000545324</v>
+        <v>2674.003808668988</v>
       </c>
     </row>
     <row r="10">
@@ -4959,22 +4959,22 @@
         <v>140.96</v>
       </c>
       <c r="G10" t="n">
-        <v>140.96</v>
+        <v>290.6133856211738</v>
       </c>
       <c r="H10" t="n">
-        <v>140.96</v>
+        <v>290.6133856211738</v>
       </c>
       <c r="I10" t="n">
-        <v>140.96</v>
+        <v>290.6133856211738</v>
       </c>
       <c r="J10" t="n">
-        <v>290.4466099967136</v>
+        <v>440.0999956178874</v>
       </c>
       <c r="K10" t="n">
-        <v>307.8416045893197</v>
+        <v>457.4949902104935</v>
       </c>
       <c r="L10" t="n">
-        <v>307.8416045893197</v>
+        <v>457.4949902104935</v>
       </c>
       <c r="M10" t="n">
         <v>457.4949902104935</v>
@@ -5023,22 +5023,22 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2578.759347546168</v>
+        <v>2580.161715518833</v>
       </c>
       <c r="C11" t="n">
-        <v>2124.744622048194</v>
+        <v>2126.146990020859</v>
       </c>
       <c r="D11" t="n">
-        <v>1710.260626351376</v>
+        <v>1711.662994324041</v>
       </c>
       <c r="E11" t="n">
-        <v>1301.812859071711</v>
+        <v>1303.215227044376</v>
       </c>
       <c r="F11" t="n">
-        <v>892.8334361343254</v>
+        <v>894.2358041069906</v>
       </c>
       <c r="G11" t="n">
-        <v>490.9304003233703</v>
+        <v>492.3327682960356</v>
       </c>
       <c r="H11" t="n">
         <v>140.96</v>
@@ -5050,49 +5050,49 @@
         <v>1101.367131735718</v>
       </c>
       <c r="K11" t="n">
-        <v>2550.716641651425</v>
+        <v>1841.010275303557</v>
       </c>
       <c r="L11" t="n">
-        <v>3468.309364968008</v>
+        <v>2758.60299862014</v>
       </c>
       <c r="M11" t="n">
-        <v>3950.48856448151</v>
+        <v>3240.782198133642</v>
       </c>
       <c r="N11" t="n">
-        <v>4515.531628354182</v>
+        <v>3805.825262006314</v>
       </c>
       <c r="O11" t="n">
-        <v>5425.686511294926</v>
+        <v>4715.980144947059</v>
       </c>
       <c r="P11" t="n">
-        <v>6261.55383939234</v>
+        <v>6413.719626391855</v>
       </c>
       <c r="Q11" t="n">
-        <v>7048.000000000039</v>
+        <v>6931.116362236997</v>
       </c>
       <c r="R11" t="n">
-        <v>7048.000000000039</v>
+        <v>7048</v>
       </c>
       <c r="S11" t="n">
-        <v>6683.344625183217</v>
+        <v>6683.344625183177</v>
       </c>
       <c r="T11" t="n">
-        <v>6116.713394464044</v>
+        <v>6118.11576243671</v>
       </c>
       <c r="U11" t="n">
-        <v>5461.408922542956</v>
+        <v>5462.811290515621</v>
       </c>
       <c r="V11" t="n">
-        <v>4825.195766818892</v>
+        <v>4826.598134791557</v>
       </c>
       <c r="W11" t="n">
-        <v>4180.374073908843</v>
+        <v>4181.776441881509</v>
       </c>
       <c r="X11" t="n">
-        <v>3582.109595665745</v>
+        <v>3583.51196363841</v>
       </c>
       <c r="Y11" t="n">
-        <v>3065.627340430587</v>
+        <v>3067.029708403252</v>
       </c>
     </row>
     <row r="12">
@@ -5181,22 +5181,22 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>307.8416045893197</v>
+        <v>140.96</v>
       </c>
       <c r="C13" t="n">
-        <v>307.8416045893197</v>
+        <v>140.96</v>
       </c>
       <c r="D13" t="n">
-        <v>307.8416045893197</v>
+        <v>140.96</v>
       </c>
       <c r="E13" t="n">
-        <v>307.8416045893197</v>
+        <v>140.96</v>
       </c>
       <c r="F13" t="n">
-        <v>307.8416045893197</v>
+        <v>140.96</v>
       </c>
       <c r="G13" t="n">
-        <v>307.8416045893197</v>
+        <v>140.96</v>
       </c>
       <c r="H13" t="n">
         <v>140.96</v>
@@ -5208,49 +5208,49 @@
         <v>290.4466099967136</v>
       </c>
       <c r="K13" t="n">
-        <v>307.8416045893197</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="L13" t="n">
-        <v>307.8416045893197</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="M13" t="n">
-        <v>307.8416045893197</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="N13" t="n">
-        <v>307.8416045893197</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="O13" t="n">
-        <v>307.8416045893197</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="P13" t="n">
-        <v>307.8416045893197</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="Q13" t="n">
-        <v>307.8416045893197</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="R13" t="n">
-        <v>307.8416045893197</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="S13" t="n">
-        <v>307.8416045893197</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="T13" t="n">
-        <v>307.8416045893197</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="U13" t="n">
-        <v>307.8416045893197</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="V13" t="n">
-        <v>307.8416045893197</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="W13" t="n">
-        <v>307.8416045893197</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="X13" t="n">
-        <v>307.8416045893197</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="Y13" t="n">
-        <v>307.8416045893197</v>
+        <v>307.8416045893196</v>
       </c>
     </row>
     <row r="14">
@@ -5260,76 +5260,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2578.75934754613</v>
+        <v>2578.759347546128</v>
       </c>
       <c r="C14" t="n">
-        <v>2124.744622048156</v>
+        <v>2124.744622048154</v>
       </c>
       <c r="D14" t="n">
-        <v>1710.260626351338</v>
+        <v>1710.260626351336</v>
       </c>
       <c r="E14" t="n">
-        <v>1301.812859071673</v>
+        <v>1301.812859071671</v>
       </c>
       <c r="F14" t="n">
-        <v>892.8334361342872</v>
+        <v>892.8334361342853</v>
       </c>
       <c r="G14" t="n">
-        <v>490.9304003233322</v>
+        <v>492.3327682960356</v>
       </c>
       <c r="H14" t="n">
         <v>140.96</v>
       </c>
       <c r="I14" t="n">
-        <v>140.96</v>
+        <v>216.5482970397704</v>
       </c>
       <c r="J14" t="n">
-        <v>1025.778834695947</v>
+        <v>1101.367131735718</v>
       </c>
       <c r="K14" t="n">
-        <v>2475.128344611655</v>
+        <v>1841.010275303557</v>
       </c>
       <c r="L14" t="n">
-        <v>3392.721067928238</v>
+        <v>2758.60299862014</v>
       </c>
       <c r="M14" t="n">
-        <v>3874.900267441741</v>
+        <v>3553.537024987068</v>
       </c>
       <c r="N14" t="n">
-        <v>4439.943331314413</v>
+        <v>4118.58008885974</v>
       </c>
       <c r="O14" t="n">
-        <v>5350.098214255157</v>
+        <v>5028.734971800483</v>
       </c>
       <c r="P14" t="n">
-        <v>6185.96554235257</v>
+        <v>5864.602299897897</v>
       </c>
       <c r="Q14" t="n">
-        <v>6931.116362236999</v>
+        <v>6931.116362236997</v>
       </c>
       <c r="R14" t="n">
-        <v>7048.000000000002</v>
+        <v>7048</v>
       </c>
       <c r="S14" t="n">
-        <v>6683.344625183179</v>
+        <v>6683.344625183177</v>
       </c>
       <c r="T14" t="n">
-        <v>6116.713394464006</v>
+        <v>6116.713394464005</v>
       </c>
       <c r="U14" t="n">
-        <v>5461.408922542918</v>
+        <v>5461.408922542916</v>
       </c>
       <c r="V14" t="n">
-        <v>4825.195766818853</v>
+        <v>4825.195766818852</v>
       </c>
       <c r="W14" t="n">
-        <v>4180.374073908805</v>
+        <v>4180.374073908803</v>
       </c>
       <c r="X14" t="n">
-        <v>3582.109595665706</v>
+        <v>3582.109595665705</v>
       </c>
       <c r="Y14" t="n">
-        <v>3065.627340430548</v>
+        <v>3065.627340430547</v>
       </c>
     </row>
     <row r="15">
@@ -5418,22 +5418,22 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>307.8416045893197</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="C16" t="n">
-        <v>307.8416045893197</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="D16" t="n">
-        <v>140.96</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="E16" t="n">
-        <v>140.96</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="F16" t="n">
-        <v>140.96</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="G16" t="n">
-        <v>140.96</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="H16" t="n">
         <v>140.96</v>
@@ -5445,49 +5445,49 @@
         <v>290.4466099967136</v>
       </c>
       <c r="K16" t="n">
-        <v>307.8416045893197</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="L16" t="n">
-        <v>307.8416045893197</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="M16" t="n">
-        <v>307.8416045893197</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="N16" t="n">
-        <v>307.8416045893197</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="O16" t="n">
-        <v>307.8416045893197</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="P16" t="n">
-        <v>307.8416045893197</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="Q16" t="n">
-        <v>307.8416045893197</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="R16" t="n">
-        <v>307.8416045893197</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="S16" t="n">
-        <v>307.8416045893197</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="T16" t="n">
-        <v>307.8416045893197</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="U16" t="n">
-        <v>307.8416045893197</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="V16" t="n">
-        <v>307.8416045893197</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="W16" t="n">
-        <v>307.8416045893197</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="X16" t="n">
-        <v>307.8416045893197</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="Y16" t="n">
-        <v>307.8416045893197</v>
+        <v>307.8416045893196</v>
       </c>
     </row>
     <row r="17">
@@ -5497,22 +5497,22 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2580.161715518833</v>
+        <v>2578.759347546128</v>
       </c>
       <c r="C17" t="n">
-        <v>2126.146990020859</v>
+        <v>2124.744622048154</v>
       </c>
       <c r="D17" t="n">
-        <v>1711.662994324041</v>
+        <v>1710.260626351336</v>
       </c>
       <c r="E17" t="n">
-        <v>1303.215227044376</v>
+        <v>1301.812859071671</v>
       </c>
       <c r="F17" t="n">
-        <v>894.2358041069906</v>
+        <v>892.8334361342853</v>
       </c>
       <c r="G17" t="n">
-        <v>492.3327682960356</v>
+        <v>490.9304003233303</v>
       </c>
       <c r="H17" t="n">
         <v>140.96</v>
@@ -5524,49 +5524,49 @@
         <v>1101.367131735718</v>
       </c>
       <c r="K17" t="n">
-        <v>2550.716641651425</v>
+        <v>1841.010275303557</v>
       </c>
       <c r="L17" t="n">
-        <v>3797.935015773448</v>
+        <v>2758.60299862014</v>
       </c>
       <c r="M17" t="n">
-        <v>4280.114215286951</v>
+        <v>3240.782198133642</v>
       </c>
       <c r="N17" t="n">
-        <v>4845.157279159623</v>
+        <v>3866.401488049235</v>
       </c>
       <c r="O17" t="n">
-        <v>5755.312162100367</v>
+        <v>4776.556370989979</v>
       </c>
       <c r="P17" t="n">
-        <v>6591.17949019778</v>
+        <v>6474.295852434775</v>
       </c>
       <c r="Q17" t="n">
-        <v>7048.000000000002</v>
+        <v>6931.116362236997</v>
       </c>
       <c r="R17" t="n">
-        <v>7048.000000000002</v>
+        <v>7048</v>
       </c>
       <c r="S17" t="n">
-        <v>6684.746993155883</v>
+        <v>6683.344625183177</v>
       </c>
       <c r="T17" t="n">
-        <v>6118.11576243671</v>
+        <v>6116.713394464005</v>
       </c>
       <c r="U17" t="n">
-        <v>5462.811290515621</v>
+        <v>5461.408922542916</v>
       </c>
       <c r="V17" t="n">
-        <v>4826.598134791557</v>
+        <v>4825.195766818852</v>
       </c>
       <c r="W17" t="n">
-        <v>4181.776441881509</v>
+        <v>4180.374073908803</v>
       </c>
       <c r="X17" t="n">
-        <v>3583.51196363841</v>
+        <v>3582.109595665705</v>
       </c>
       <c r="Y17" t="n">
-        <v>3067.029708403252</v>
+        <v>3065.627340430547</v>
       </c>
     </row>
     <row r="18">
@@ -5655,25 +5655,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>307.8416045893197</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="C19" t="n">
-        <v>307.8416045893197</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="D19" t="n">
-        <v>307.8416045893197</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="E19" t="n">
-        <v>239.3480243885944</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="F19" t="n">
-        <v>239.3480243885944</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="G19" t="n">
-        <v>239.3480243885944</v>
+        <v>140.96</v>
       </c>
       <c r="H19" t="n">
-        <v>239.3480243885944</v>
+        <v>140.96</v>
       </c>
       <c r="I19" t="n">
         <v>140.96</v>
@@ -5682,49 +5682,49 @@
         <v>290.4466099967136</v>
       </c>
       <c r="K19" t="n">
-        <v>307.8416045893197</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="L19" t="n">
-        <v>307.8416045893197</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="M19" t="n">
-        <v>307.8416045893197</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="N19" t="n">
-        <v>307.8416045893197</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="O19" t="n">
-        <v>307.8416045893197</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="P19" t="n">
-        <v>307.8416045893197</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="Q19" t="n">
-        <v>307.8416045893197</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="R19" t="n">
-        <v>307.8416045893197</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="S19" t="n">
-        <v>307.8416045893197</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="T19" t="n">
-        <v>307.8416045893197</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="U19" t="n">
-        <v>307.8416045893197</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="V19" t="n">
-        <v>307.8416045893197</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="W19" t="n">
-        <v>307.8416045893197</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="X19" t="n">
-        <v>307.8416045893197</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="Y19" t="n">
-        <v>307.8416045893197</v>
+        <v>307.8416045893196</v>
       </c>
     </row>
     <row r="20">
@@ -5746,40 +5746,40 @@
         <v>1301.812859071673</v>
       </c>
       <c r="F20" t="n">
-        <v>894.2358041069906</v>
+        <v>892.8334361342871</v>
       </c>
       <c r="G20" t="n">
-        <v>492.3327682960356</v>
+        <v>490.9304003233322</v>
       </c>
       <c r="H20" t="n">
         <v>140.96</v>
       </c>
       <c r="I20" t="n">
-        <v>140.96</v>
+        <v>216.5482970397704</v>
       </c>
       <c r="J20" t="n">
-        <v>1025.778834695947</v>
+        <v>1101.367131735718</v>
       </c>
       <c r="K20" t="n">
-        <v>2475.128344611655</v>
+        <v>1841.010275303557</v>
       </c>
       <c r="L20" t="n">
-        <v>3392.721067928238</v>
+        <v>2758.60299862014</v>
       </c>
       <c r="M20" t="n">
-        <v>3874.900267441741</v>
+        <v>4163.230577523947</v>
       </c>
       <c r="N20" t="n">
-        <v>4439.943331314413</v>
+        <v>4728.273641396619</v>
       </c>
       <c r="O20" t="n">
-        <v>5350.098214255157</v>
+        <v>5638.428524337363</v>
       </c>
       <c r="P20" t="n">
-        <v>6591.17949019778</v>
+        <v>6474.295852434777</v>
       </c>
       <c r="Q20" t="n">
-        <v>7048.000000000002</v>
+        <v>6931.116362236999</v>
       </c>
       <c r="R20" t="n">
         <v>7048.000000000002</v>
@@ -5892,22 +5892,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>307.8416045893197</v>
+        <v>140.96</v>
       </c>
       <c r="C22" t="n">
-        <v>307.8416045893197</v>
+        <v>140.96</v>
       </c>
       <c r="D22" t="n">
-        <v>307.8416045893197</v>
+        <v>140.96</v>
       </c>
       <c r="E22" t="n">
-        <v>307.8416045893197</v>
+        <v>140.96</v>
       </c>
       <c r="F22" t="n">
-        <v>307.8416045893197</v>
+        <v>140.96</v>
       </c>
       <c r="G22" t="n">
-        <v>307.8416045893197</v>
+        <v>140.96</v>
       </c>
       <c r="H22" t="n">
         <v>140.96</v>
@@ -5919,49 +5919,49 @@
         <v>290.4466099967136</v>
       </c>
       <c r="K22" t="n">
-        <v>307.8416045893197</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="L22" t="n">
-        <v>307.8416045893197</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="M22" t="n">
-        <v>307.8416045893197</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="N22" t="n">
-        <v>307.8416045893197</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="O22" t="n">
-        <v>307.8416045893197</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="P22" t="n">
-        <v>307.8416045893197</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="Q22" t="n">
-        <v>307.8416045893197</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="R22" t="n">
-        <v>307.8416045893197</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="S22" t="n">
-        <v>307.8416045893197</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="T22" t="n">
-        <v>307.8416045893197</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="U22" t="n">
-        <v>307.8416045893197</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="V22" t="n">
-        <v>307.8416045893197</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="W22" t="n">
-        <v>307.8416045893197</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="X22" t="n">
-        <v>307.8416045893197</v>
+        <v>140.96</v>
       </c>
       <c r="Y22" t="n">
-        <v>307.8416045893197</v>
+        <v>140.96</v>
       </c>
     </row>
     <row r="23">
@@ -5983,7 +5983,7 @@
         <v>1301.812859071673</v>
       </c>
       <c r="F23" t="n">
-        <v>892.8334361342872</v>
+        <v>892.8334361342871</v>
       </c>
       <c r="G23" t="n">
         <v>490.9304003233322</v>
@@ -5992,31 +5992,31 @@
         <v>140.96</v>
       </c>
       <c r="I23" t="n">
-        <v>140.96</v>
+        <v>216.5482970397704</v>
       </c>
       <c r="J23" t="n">
-        <v>599.7771454756521</v>
+        <v>675.3654425154225</v>
       </c>
       <c r="K23" t="n">
-        <v>1339.420289043491</v>
+        <v>1415.008586083262</v>
       </c>
       <c r="L23" t="n">
-        <v>2748.266680678619</v>
+        <v>2332.601309399844</v>
       </c>
       <c r="M23" t="n">
-        <v>4280.114215286951</v>
+        <v>2814.780508913348</v>
       </c>
       <c r="N23" t="n">
-        <v>4845.157279159623</v>
+        <v>4465.52036104992</v>
       </c>
       <c r="O23" t="n">
-        <v>5755.312162100367</v>
+        <v>5375.675243990664</v>
       </c>
       <c r="P23" t="n">
-        <v>6591.17949019778</v>
+        <v>6474.295852434777</v>
       </c>
       <c r="Q23" t="n">
-        <v>7048.000000000002</v>
+        <v>6931.116362236999</v>
       </c>
       <c r="R23" t="n">
         <v>7048.000000000002</v>
@@ -6129,22 +6129,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>140.96</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="C25" t="n">
-        <v>140.96</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="D25" t="n">
-        <v>140.96</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="E25" t="n">
-        <v>140.96</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="F25" t="n">
-        <v>140.96</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="G25" t="n">
-        <v>140.96</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="H25" t="n">
         <v>140.96</v>
@@ -6156,49 +6156,49 @@
         <v>290.4466099967136</v>
       </c>
       <c r="K25" t="n">
-        <v>307.8416045893197</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="L25" t="n">
-        <v>307.8416045893197</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="M25" t="n">
-        <v>307.8416045893197</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="N25" t="n">
-        <v>307.8416045893197</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="O25" t="n">
-        <v>307.8416045893197</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="P25" t="n">
-        <v>307.8416045893197</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="Q25" t="n">
-        <v>307.8416045893197</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="R25" t="n">
-        <v>307.8416045893197</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="S25" t="n">
-        <v>307.8416045893197</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="T25" t="n">
-        <v>307.8416045893197</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="U25" t="n">
-        <v>307.8416045893197</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="V25" t="n">
-        <v>307.8416045893197</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="W25" t="n">
-        <v>307.8416045893197</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="X25" t="n">
-        <v>307.8416045893197</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="Y25" t="n">
-        <v>307.8416045893197</v>
+        <v>307.8416045893196</v>
       </c>
     </row>
     <row r="26">
@@ -6208,76 +6208,76 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2578.759347546596</v>
+        <v>2578.759347546128</v>
       </c>
       <c r="C26" t="n">
-        <v>2124.744622048622</v>
+        <v>2124.744622048154</v>
       </c>
       <c r="D26" t="n">
-        <v>1710.260626351804</v>
+        <v>1710.260626351336</v>
       </c>
       <c r="E26" t="n">
-        <v>1301.812859072139</v>
+        <v>1301.812859071671</v>
       </c>
       <c r="F26" t="n">
-        <v>892.8334361347528</v>
+        <v>892.8334361342853</v>
       </c>
       <c r="G26" t="n">
-        <v>490.9304003237978</v>
+        <v>490.9304003233303</v>
       </c>
       <c r="H26" t="n">
-        <v>140.9600000000094</v>
+        <v>140.96</v>
       </c>
       <c r="I26" t="n">
-        <v>216.5482970397798</v>
+        <v>216.5482970397704</v>
       </c>
       <c r="J26" t="n">
-        <v>1101.367131735727</v>
+        <v>675.3654425154225</v>
       </c>
       <c r="K26" t="n">
-        <v>2550.716641651435</v>
+        <v>2124.71495243113</v>
       </c>
       <c r="L26" t="n">
-        <v>3797.935015773914</v>
+        <v>3042.307675747712</v>
       </c>
       <c r="M26" t="n">
-        <v>4280.114215287416</v>
+        <v>3524.486875261216</v>
       </c>
       <c r="N26" t="n">
-        <v>4845.157279160088</v>
+        <v>4089.529939133888</v>
       </c>
       <c r="O26" t="n">
-        <v>5755.312162100832</v>
+        <v>5028.734971800483</v>
       </c>
       <c r="P26" t="n">
-        <v>6591.179490198246</v>
+        <v>5864.602299897897</v>
       </c>
       <c r="Q26" t="n">
-        <v>7048.000000000467</v>
+        <v>6931.116362236997</v>
       </c>
       <c r="R26" t="n">
-        <v>7048.000000000467</v>
+        <v>7048</v>
       </c>
       <c r="S26" t="n">
-        <v>6683.344625183645</v>
+        <v>6683.344625183177</v>
       </c>
       <c r="T26" t="n">
-        <v>6116.713394464472</v>
+        <v>6116.713394464005</v>
       </c>
       <c r="U26" t="n">
-        <v>5461.408922543384</v>
+        <v>5461.408922542916</v>
       </c>
       <c r="V26" t="n">
-        <v>4825.195766819319</v>
+        <v>4825.195766818852</v>
       </c>
       <c r="W26" t="n">
-        <v>4180.374073909271</v>
+        <v>4180.374073908803</v>
       </c>
       <c r="X26" t="n">
-        <v>3582.109595666172</v>
+        <v>3582.109595665705</v>
       </c>
       <c r="Y26" t="n">
-        <v>3065.627340431014</v>
+        <v>3065.627340430547</v>
       </c>
     </row>
     <row r="27">
@@ -6287,76 +6287,76 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>2287.112034235913</v>
+        <v>2287.112034235904</v>
       </c>
       <c r="C27" t="n">
-        <v>1922.364647927307</v>
+        <v>1922.364647927298</v>
       </c>
       <c r="D27" t="n">
-        <v>1570.912438939729</v>
+        <v>1570.91243893972</v>
       </c>
       <c r="E27" t="n">
-        <v>1224.779007402444</v>
+        <v>1224.779007402434</v>
       </c>
       <c r="F27" t="n">
-        <v>881.7120959500426</v>
+        <v>881.7120959500332</v>
       </c>
       <c r="G27" t="n">
-        <v>555.85653274485</v>
+        <v>555.8565327448407</v>
       </c>
       <c r="H27" t="n">
-        <v>250.9899876546972</v>
+        <v>250.9899876546879</v>
       </c>
       <c r="I27" t="n">
-        <v>140.9600000000094</v>
+        <v>140.96</v>
       </c>
       <c r="J27" t="n">
-        <v>558.847529514931</v>
+        <v>558.8475295149217</v>
       </c>
       <c r="K27" t="n">
-        <v>1250.415257213088</v>
+        <v>1250.415257213079</v>
       </c>
       <c r="L27" t="n">
-        <v>2197.270784374326</v>
+        <v>2197.270784374317</v>
       </c>
       <c r="M27" t="n">
-        <v>3071.633876117185</v>
+        <v>3071.633876117176</v>
       </c>
       <c r="N27" t="n">
-        <v>4014.06020421532</v>
+        <v>4014.06020421531</v>
       </c>
       <c r="O27" t="n">
-        <v>4993.313206182058</v>
+        <v>4993.313206182049</v>
       </c>
       <c r="P27" t="n">
-        <v>5699.926775368545</v>
+        <v>5699.926775368536</v>
       </c>
       <c r="Q27" t="n">
-        <v>5925.707874249725</v>
+        <v>5925.707874249716</v>
       </c>
       <c r="R27" t="n">
-        <v>5569.989306372918</v>
+        <v>5569.989306372909</v>
       </c>
       <c r="S27" t="n">
-        <v>5159.222422432132</v>
+        <v>5159.222422432123</v>
       </c>
       <c r="T27" t="n">
-        <v>4762.564674070625</v>
+        <v>4762.564674070616</v>
       </c>
       <c r="U27" t="n">
-        <v>4358.520619043183</v>
+        <v>4358.520619043174</v>
       </c>
       <c r="V27" t="n">
-        <v>3939.822975415384</v>
+        <v>3939.822975415375</v>
       </c>
       <c r="W27" t="n">
-        <v>3503.082427021618</v>
+        <v>3503.082427021609</v>
       </c>
       <c r="X27" t="n">
-        <v>3078.978649804055</v>
+        <v>3078.978649804046</v>
       </c>
       <c r="Y27" t="n">
-        <v>2675.553000545333</v>
+        <v>2675.553000545324</v>
       </c>
     </row>
     <row r="28">
@@ -6366,76 +6366,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>307.841604589329</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="C28" t="n">
-        <v>307.841604589329</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="D28" t="n">
-        <v>307.841604589329</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="E28" t="n">
-        <v>307.841604589329</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="F28" t="n">
-        <v>307.841604589329</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="G28" t="n">
-        <v>140.9600000000094</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="H28" t="n">
-        <v>140.9600000000094</v>
+        <v>140.96</v>
       </c>
       <c r="I28" t="n">
-        <v>140.9600000000094</v>
+        <v>140.96</v>
       </c>
       <c r="J28" t="n">
-        <v>290.4466099967229</v>
+        <v>290.4466099967136</v>
       </c>
       <c r="K28" t="n">
-        <v>307.841604589329</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="L28" t="n">
-        <v>307.841604589329</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="M28" t="n">
-        <v>307.841604589329</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="N28" t="n">
-        <v>307.841604589329</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="O28" t="n">
-        <v>307.841604589329</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="P28" t="n">
-        <v>307.841604589329</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="Q28" t="n">
-        <v>307.841604589329</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="R28" t="n">
-        <v>307.841604589329</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="S28" t="n">
-        <v>307.841604589329</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="T28" t="n">
-        <v>307.841604589329</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="U28" t="n">
-        <v>307.841604589329</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="V28" t="n">
-        <v>307.841604589329</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="W28" t="n">
-        <v>307.841604589329</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="X28" t="n">
-        <v>307.841604589329</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="Y28" t="n">
-        <v>307.841604589329</v>
+        <v>307.8416045893196</v>
       </c>
     </row>
     <row r="29">
@@ -6445,76 +6445,76 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2580.161715517806</v>
+        <v>2578.759347547337</v>
       </c>
       <c r="C29" t="n">
-        <v>2126.146990020005</v>
+        <v>2124.744622049536</v>
       </c>
       <c r="D29" t="n">
-        <v>1711.66299432336</v>
+        <v>1710.260626352891</v>
       </c>
       <c r="E29" t="n">
-        <v>1303.215227043867</v>
+        <v>1301.812859073398</v>
       </c>
       <c r="F29" t="n">
-        <v>894.2358041066544</v>
+        <v>892.8334361361854</v>
       </c>
       <c r="G29" t="n">
-        <v>492.3327682958722</v>
+        <v>492.3327682958628</v>
       </c>
       <c r="H29" t="n">
-        <v>140.9600000000094</v>
+        <v>140.96</v>
       </c>
       <c r="I29" t="n">
-        <v>216.5482970397798</v>
+        <v>216.5482970397704</v>
       </c>
       <c r="J29" t="n">
-        <v>1101.367131735727</v>
+        <v>675.3654425154225</v>
       </c>
       <c r="K29" t="n">
-        <v>2550.716641651435</v>
+        <v>1415.008586083262</v>
       </c>
       <c r="L29" t="n">
-        <v>3797.935015773914</v>
+        <v>2332.601309399844</v>
       </c>
       <c r="M29" t="n">
-        <v>4280.114215287416</v>
+        <v>2814.780508913348</v>
       </c>
       <c r="N29" t="n">
-        <v>4845.157279160088</v>
+        <v>3379.82357278602</v>
       </c>
       <c r="O29" t="n">
-        <v>5755.312162100832</v>
+        <v>4289.978455726764</v>
       </c>
       <c r="P29" t="n">
-        <v>6591.179490198246</v>
+        <v>5864.602299897897</v>
       </c>
       <c r="Q29" t="n">
-        <v>7048.000000000467</v>
+        <v>6931.116362236997</v>
       </c>
       <c r="R29" t="n">
-        <v>7048.000000000467</v>
+        <v>7048</v>
       </c>
       <c r="S29" t="n">
-        <v>6683.344625183818</v>
+        <v>6683.34462518335</v>
       </c>
       <c r="T29" t="n">
-        <v>6116.713394464818</v>
+        <v>6116.71339446435</v>
       </c>
       <c r="U29" t="n">
-        <v>5461.408922543902</v>
+        <v>5461.408922543262</v>
       </c>
       <c r="V29" t="n">
-        <v>4826.598134789839</v>
+        <v>4825.19576681937</v>
       </c>
       <c r="W29" t="n">
-        <v>4181.776441879963</v>
+        <v>4180.374073909495</v>
       </c>
       <c r="X29" t="n">
-        <v>3583.511963637038</v>
+        <v>3582.109595666569</v>
       </c>
       <c r="Y29" t="n">
-        <v>3067.029708402053</v>
+        <v>3065.627340431583</v>
       </c>
     </row>
     <row r="30">
@@ -6524,76 +6524,76 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>2287.112034235913</v>
+        <v>2287.112034235904</v>
       </c>
       <c r="C30" t="n">
-        <v>1922.364647927307</v>
+        <v>1922.364647927298</v>
       </c>
       <c r="D30" t="n">
-        <v>1570.912438939729</v>
+        <v>1570.91243893972</v>
       </c>
       <c r="E30" t="n">
-        <v>1224.779007402444</v>
+        <v>1224.779007402434</v>
       </c>
       <c r="F30" t="n">
-        <v>881.7120959500426</v>
+        <v>881.7120959500332</v>
       </c>
       <c r="G30" t="n">
-        <v>555.85653274485</v>
+        <v>555.8565327448407</v>
       </c>
       <c r="H30" t="n">
-        <v>250.9899876546972</v>
+        <v>250.9899876546879</v>
       </c>
       <c r="I30" t="n">
-        <v>140.9600000000094</v>
+        <v>140.96</v>
       </c>
       <c r="J30" t="n">
-        <v>558.8475295151003</v>
+        <v>558.847529515091</v>
       </c>
       <c r="K30" t="n">
-        <v>1250.415257213427</v>
+        <v>1250.415257213417</v>
       </c>
       <c r="L30" t="n">
-        <v>2197.270784374834</v>
+        <v>2197.270784374824</v>
       </c>
       <c r="M30" t="n">
-        <v>3071.633876117693</v>
+        <v>3071.633876117853</v>
       </c>
       <c r="N30" t="n">
-        <v>4014.060204215828</v>
+        <v>4014.060204215988</v>
       </c>
       <c r="O30" t="n">
-        <v>4993.313206182565</v>
+        <v>4993.313206182895</v>
       </c>
       <c r="P30" t="n">
-        <v>5699.926775369222</v>
+        <v>5699.926775369551</v>
       </c>
       <c r="Q30" t="n">
-        <v>5925.707874250571</v>
+        <v>5925.7078742509</v>
       </c>
       <c r="R30" t="n">
-        <v>5571.538498249254</v>
+        <v>5569.989306374093</v>
       </c>
       <c r="S30" t="n">
-        <v>5159.222422432132</v>
+        <v>5159.222422432123</v>
       </c>
       <c r="T30" t="n">
-        <v>4762.564674070625</v>
+        <v>4762.564674070616</v>
       </c>
       <c r="U30" t="n">
-        <v>4358.520619043183</v>
+        <v>4358.520619043174</v>
       </c>
       <c r="V30" t="n">
-        <v>3939.822975415384</v>
+        <v>3939.822975415375</v>
       </c>
       <c r="W30" t="n">
-        <v>3503.082427021618</v>
+        <v>3503.082427021609</v>
       </c>
       <c r="X30" t="n">
-        <v>3078.978649804055</v>
+        <v>3078.978649804046</v>
       </c>
       <c r="Y30" t="n">
-        <v>2675.553000545333</v>
+        <v>2675.553000545324</v>
       </c>
     </row>
     <row r="31">
@@ -6603,76 +6603,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>140.9600000000094</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="C31" t="n">
-        <v>140.9600000000094</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="D31" t="n">
-        <v>140.9600000000094</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="E31" t="n">
-        <v>140.9600000000094</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="F31" t="n">
-        <v>140.9600000000094</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="G31" t="n">
-        <v>140.9600000000094</v>
+        <v>140.96</v>
       </c>
       <c r="H31" t="n">
-        <v>140.9600000000094</v>
+        <v>140.96</v>
       </c>
       <c r="I31" t="n">
-        <v>140.9600000000094</v>
+        <v>140.96</v>
       </c>
       <c r="J31" t="n">
-        <v>290.4466099967229</v>
+        <v>290.4466099967136</v>
       </c>
       <c r="K31" t="n">
-        <v>307.841604589329</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="L31" t="n">
-        <v>307.841604589329</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="M31" t="n">
-        <v>307.841604589329</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="N31" t="n">
-        <v>307.841604589329</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="O31" t="n">
-        <v>307.841604589329</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="P31" t="n">
-        <v>307.841604589329</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="Q31" t="n">
-        <v>307.841604589329</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="R31" t="n">
-        <v>307.841604589329</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="S31" t="n">
-        <v>307.841604589329</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="T31" t="n">
-        <v>307.841604589329</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="U31" t="n">
-        <v>307.841604589329</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="V31" t="n">
-        <v>307.841604589329</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="W31" t="n">
-        <v>307.841604589329</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="X31" t="n">
-        <v>307.841604589329</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="Y31" t="n">
-        <v>307.841604589329</v>
+        <v>307.8416045893196</v>
       </c>
     </row>
     <row r="32">
@@ -6682,76 +6682,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2578.759347546596</v>
+        <v>2578.75934754613</v>
       </c>
       <c r="C32" t="n">
-        <v>2124.744622048622</v>
+        <v>2124.744622048156</v>
       </c>
       <c r="D32" t="n">
-        <v>1710.260626351804</v>
+        <v>1710.260626351338</v>
       </c>
       <c r="E32" t="n">
-        <v>1301.812859072139</v>
+        <v>1301.812859071673</v>
       </c>
       <c r="F32" t="n">
-        <v>892.8334361347528</v>
+        <v>892.8334361342871</v>
       </c>
       <c r="G32" t="n">
-        <v>490.9304003237978</v>
+        <v>490.9304003233322</v>
       </c>
       <c r="H32" t="n">
-        <v>140.9600000000094</v>
+        <v>140.96</v>
       </c>
       <c r="I32" t="n">
-        <v>140.9600000000094</v>
+        <v>216.5482970397704</v>
       </c>
       <c r="J32" t="n">
-        <v>1025.778834695956</v>
+        <v>1101.367131735718</v>
       </c>
       <c r="K32" t="n">
-        <v>2475.128344611664</v>
+        <v>1841.010275303557</v>
       </c>
       <c r="L32" t="n">
-        <v>3797.935015773914</v>
+        <v>2758.60299862014</v>
       </c>
       <c r="M32" t="n">
-        <v>4280.114215287416</v>
+        <v>3240.782198133642</v>
       </c>
       <c r="N32" t="n">
-        <v>4845.157279160088</v>
+        <v>4728.273641396619</v>
       </c>
       <c r="O32" t="n">
-        <v>5755.312162100832</v>
+        <v>5638.428524337363</v>
       </c>
       <c r="P32" t="n">
-        <v>6591.179490198246</v>
+        <v>6474.295852434777</v>
       </c>
       <c r="Q32" t="n">
-        <v>7048.000000000467</v>
+        <v>6931.116362236999</v>
       </c>
       <c r="R32" t="n">
-        <v>7048.000000000467</v>
+        <v>7048.000000000002</v>
       </c>
       <c r="S32" t="n">
-        <v>6683.344625183645</v>
+        <v>6683.344625183179</v>
       </c>
       <c r="T32" t="n">
-        <v>6116.713394464472</v>
+        <v>6116.713394464006</v>
       </c>
       <c r="U32" t="n">
-        <v>5461.408922543384</v>
+        <v>5461.408922542918</v>
       </c>
       <c r="V32" t="n">
-        <v>4825.195766819319</v>
+        <v>4825.195766818853</v>
       </c>
       <c r="W32" t="n">
-        <v>4180.374073909271</v>
+        <v>4180.374073908805</v>
       </c>
       <c r="X32" t="n">
-        <v>3582.109595666172</v>
+        <v>3582.109595665706</v>
       </c>
       <c r="Y32" t="n">
-        <v>3065.627340431014</v>
+        <v>3065.627340430548</v>
       </c>
     </row>
     <row r="33">
@@ -6761,76 +6761,76 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>2287.112034235913</v>
+        <v>2287.112034235904</v>
       </c>
       <c r="C33" t="n">
-        <v>1922.364647927307</v>
+        <v>1922.364647927298</v>
       </c>
       <c r="D33" t="n">
-        <v>1570.912438939729</v>
+        <v>1570.91243893972</v>
       </c>
       <c r="E33" t="n">
-        <v>1224.779007402444</v>
+        <v>1224.779007402434</v>
       </c>
       <c r="F33" t="n">
-        <v>881.7120959500426</v>
+        <v>881.7120959500332</v>
       </c>
       <c r="G33" t="n">
-        <v>555.85653274485</v>
+        <v>555.8565327448407</v>
       </c>
       <c r="H33" t="n">
-        <v>250.9899876546972</v>
+        <v>250.9899876546879</v>
       </c>
       <c r="I33" t="n">
-        <v>140.9600000000094</v>
+        <v>140.96</v>
       </c>
       <c r="J33" t="n">
-        <v>558.847529514931</v>
+        <v>558.8475295149217</v>
       </c>
       <c r="K33" t="n">
-        <v>1250.415257213088</v>
+        <v>1250.415257213079</v>
       </c>
       <c r="L33" t="n">
-        <v>2197.270784374326</v>
+        <v>2197.270784374317</v>
       </c>
       <c r="M33" t="n">
-        <v>3071.633876117185</v>
+        <v>3071.633876117176</v>
       </c>
       <c r="N33" t="n">
-        <v>4014.06020421532</v>
+        <v>4014.06020421531</v>
       </c>
       <c r="O33" t="n">
-        <v>4993.313206182058</v>
+        <v>4993.313206182049</v>
       </c>
       <c r="P33" t="n">
-        <v>5699.926775368545</v>
+        <v>5699.926775368536</v>
       </c>
       <c r="Q33" t="n">
-        <v>5925.707874249725</v>
+        <v>5925.707874249716</v>
       </c>
       <c r="R33" t="n">
-        <v>5571.538498249254</v>
+        <v>5569.989306372909</v>
       </c>
       <c r="S33" t="n">
-        <v>5159.222422432132</v>
+        <v>5159.222422432123</v>
       </c>
       <c r="T33" t="n">
-        <v>4762.564674070625</v>
+        <v>4762.564674070616</v>
       </c>
       <c r="U33" t="n">
-        <v>4358.520619043183</v>
+        <v>4358.520619043174</v>
       </c>
       <c r="V33" t="n">
-        <v>3939.822975415384</v>
+        <v>3939.822975415375</v>
       </c>
       <c r="W33" t="n">
-        <v>3503.082427021618</v>
+        <v>3503.082427021609</v>
       </c>
       <c r="X33" t="n">
-        <v>3078.978649804055</v>
+        <v>3078.978649804046</v>
       </c>
       <c r="Y33" t="n">
-        <v>2675.553000545333</v>
+        <v>2675.553000545324</v>
       </c>
     </row>
     <row r="34">
@@ -6840,76 +6840,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>307.841604589329</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="C34" t="n">
-        <v>307.841604589329</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="D34" t="n">
-        <v>307.841604589329</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="E34" t="n">
-        <v>307.841604589329</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="F34" t="n">
-        <v>307.841604589329</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="G34" t="n">
-        <v>307.841604589329</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="H34" t="n">
-        <v>140.9600000000094</v>
+        <v>140.96</v>
       </c>
       <c r="I34" t="n">
-        <v>140.9600000000094</v>
+        <v>140.96</v>
       </c>
       <c r="J34" t="n">
-        <v>290.4466099967229</v>
+        <v>290.4466099967136</v>
       </c>
       <c r="K34" t="n">
-        <v>307.841604589329</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="L34" t="n">
-        <v>307.841604589329</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="M34" t="n">
-        <v>307.841604589329</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="N34" t="n">
-        <v>307.841604589329</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="O34" t="n">
-        <v>307.841604589329</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="P34" t="n">
-        <v>307.841604589329</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="Q34" t="n">
-        <v>307.841604589329</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="R34" t="n">
-        <v>307.841604589329</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="S34" t="n">
-        <v>307.841604589329</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="T34" t="n">
-        <v>307.841604589329</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="U34" t="n">
-        <v>307.841604589329</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="V34" t="n">
-        <v>307.841604589329</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="W34" t="n">
-        <v>307.841604589329</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="X34" t="n">
-        <v>307.841604589329</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="Y34" t="n">
-        <v>307.841604589329</v>
+        <v>307.8416045893196</v>
       </c>
     </row>
     <row r="35">
@@ -6919,76 +6919,76 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2580.161715518843</v>
+        <v>2580.161715518833</v>
       </c>
       <c r="C35" t="n">
-        <v>2126.146990020869</v>
+        <v>2126.146990020859</v>
       </c>
       <c r="D35" t="n">
-        <v>1711.662994324051</v>
+        <v>1711.662994324041</v>
       </c>
       <c r="E35" t="n">
-        <v>1303.215227044386</v>
+        <v>1303.215227044376</v>
       </c>
       <c r="F35" t="n">
-        <v>894.2358041069999</v>
+        <v>894.2358041069906</v>
       </c>
       <c r="G35" t="n">
-        <v>492.3327682960449</v>
+        <v>492.3327682960356</v>
       </c>
       <c r="H35" t="n">
-        <v>140.9600000000094</v>
+        <v>140.96</v>
       </c>
       <c r="I35" t="n">
-        <v>140.9600000000094</v>
+        <v>216.5482970397704</v>
       </c>
       <c r="J35" t="n">
-        <v>599.7771454756614</v>
+        <v>675.3654425154225</v>
       </c>
       <c r="K35" t="n">
-        <v>2049.126655391369</v>
+        <v>1415.008586083262</v>
       </c>
       <c r="L35" t="n">
-        <v>2966.719378707953</v>
+        <v>2332.601309399844</v>
       </c>
       <c r="M35" t="n">
-        <v>4280.114215287416</v>
+        <v>2814.780508913348</v>
       </c>
       <c r="N35" t="n">
-        <v>4845.157279160088</v>
+        <v>4465.52036104992</v>
       </c>
       <c r="O35" t="n">
-        <v>5755.312162100832</v>
+        <v>5638.428524337362</v>
       </c>
       <c r="P35" t="n">
-        <v>6591.179490198246</v>
+        <v>6474.295852434775</v>
       </c>
       <c r="Q35" t="n">
-        <v>7048.000000000467</v>
+        <v>6931.116362236997</v>
       </c>
       <c r="R35" t="n">
-        <v>7048.000000000467</v>
+        <v>7048</v>
       </c>
       <c r="S35" t="n">
-        <v>6683.344625183645</v>
+        <v>6684.746993155883</v>
       </c>
       <c r="T35" t="n">
-        <v>6116.713394464472</v>
+        <v>6118.11576243671</v>
       </c>
       <c r="U35" t="n">
-        <v>5461.408922543384</v>
+        <v>5462.811290515621</v>
       </c>
       <c r="V35" t="n">
-        <v>4825.195766819319</v>
+        <v>4826.598134791557</v>
       </c>
       <c r="W35" t="n">
-        <v>4181.776441881519</v>
+        <v>4181.776441881509</v>
       </c>
       <c r="X35" t="n">
-        <v>3583.51196363842</v>
+        <v>3583.51196363841</v>
       </c>
       <c r="Y35" t="n">
-        <v>3067.029708403262</v>
+        <v>3067.029708403252</v>
       </c>
     </row>
     <row r="36">
@@ -6998,76 +6998,76 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>2287.112034235913</v>
+        <v>2287.112034235904</v>
       </c>
       <c r="C36" t="n">
-        <v>1922.364647927307</v>
+        <v>1922.364647927298</v>
       </c>
       <c r="D36" t="n">
-        <v>1570.912438939729</v>
+        <v>1570.91243893972</v>
       </c>
       <c r="E36" t="n">
-        <v>1224.779007402444</v>
+        <v>1224.779007402434</v>
       </c>
       <c r="F36" t="n">
-        <v>881.7120959500426</v>
+        <v>881.7120959500332</v>
       </c>
       <c r="G36" t="n">
-        <v>555.85653274485</v>
+        <v>555.8565327448407</v>
       </c>
       <c r="H36" t="n">
-        <v>250.9899876546972</v>
+        <v>250.9899876546879</v>
       </c>
       <c r="I36" t="n">
-        <v>140.9600000000094</v>
+        <v>140.96</v>
       </c>
       <c r="J36" t="n">
-        <v>558.847529514931</v>
+        <v>558.8475295149217</v>
       </c>
       <c r="K36" t="n">
-        <v>1250.415257213088</v>
+        <v>1250.415257213079</v>
       </c>
       <c r="L36" t="n">
-        <v>2197.270784374326</v>
+        <v>2197.270784374317</v>
       </c>
       <c r="M36" t="n">
-        <v>3071.633876117185</v>
+        <v>3071.633876117176</v>
       </c>
       <c r="N36" t="n">
-        <v>4014.06020421532</v>
+        <v>4014.06020421531</v>
       </c>
       <c r="O36" t="n">
-        <v>4993.313206182058</v>
+        <v>4993.313206182049</v>
       </c>
       <c r="P36" t="n">
-        <v>5699.926775368545</v>
+        <v>5699.926775368536</v>
       </c>
       <c r="Q36" t="n">
-        <v>5925.707874249725</v>
+        <v>5925.707874249716</v>
       </c>
       <c r="R36" t="n">
-        <v>5569.989306372918</v>
+        <v>5569.989306372909</v>
       </c>
       <c r="S36" t="n">
-        <v>5159.222422432132</v>
+        <v>5159.222422432123</v>
       </c>
       <c r="T36" t="n">
-        <v>4762.564674070625</v>
+        <v>4762.564674070616</v>
       </c>
       <c r="U36" t="n">
-        <v>4358.520619043183</v>
+        <v>4358.520619043174</v>
       </c>
       <c r="V36" t="n">
-        <v>3939.822975415384</v>
+        <v>3939.822975415375</v>
       </c>
       <c r="W36" t="n">
-        <v>3503.082427021618</v>
+        <v>3503.082427021609</v>
       </c>
       <c r="X36" t="n">
-        <v>3078.978649804055</v>
+        <v>3078.978649804046</v>
       </c>
       <c r="Y36" t="n">
-        <v>2675.553000545333</v>
+        <v>2675.553000545324</v>
       </c>
     </row>
     <row r="37">
@@ -7077,76 +7077,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>307.841604589329</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="C37" t="n">
-        <v>307.841604589329</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="D37" t="n">
-        <v>307.841604589329</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="E37" t="n">
-        <v>307.841604589329</v>
+        <v>140.96</v>
       </c>
       <c r="F37" t="n">
-        <v>307.841604589329</v>
+        <v>140.96</v>
       </c>
       <c r="G37" t="n">
-        <v>307.841604589329</v>
+        <v>140.96</v>
       </c>
       <c r="H37" t="n">
-        <v>140.9600000000094</v>
+        <v>140.96</v>
       </c>
       <c r="I37" t="n">
-        <v>140.9600000000094</v>
+        <v>140.96</v>
       </c>
       <c r="J37" t="n">
-        <v>290.4466099967229</v>
+        <v>290.4466099967136</v>
       </c>
       <c r="K37" t="n">
-        <v>307.841604589329</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="L37" t="n">
-        <v>307.841604589329</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="M37" t="n">
-        <v>307.841604589329</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="N37" t="n">
-        <v>307.841604589329</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="O37" t="n">
-        <v>307.841604589329</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="P37" t="n">
-        <v>307.841604589329</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="Q37" t="n">
-        <v>307.841604589329</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="R37" t="n">
-        <v>307.841604589329</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="S37" t="n">
-        <v>307.841604589329</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="T37" t="n">
-        <v>307.841604589329</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="U37" t="n">
-        <v>307.841604589329</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="V37" t="n">
-        <v>307.841604589329</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="W37" t="n">
-        <v>307.841604589329</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="X37" t="n">
-        <v>307.841604589329</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="Y37" t="n">
-        <v>307.841604589329</v>
+        <v>307.8416045893196</v>
       </c>
     </row>
     <row r="38">
@@ -7156,76 +7156,76 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2580.161715518843</v>
+        <v>2580.161715518833</v>
       </c>
       <c r="C38" t="n">
-        <v>2126.146990020869</v>
+        <v>2126.146990020859</v>
       </c>
       <c r="D38" t="n">
-        <v>1711.662994324051</v>
+        <v>1711.662994324041</v>
       </c>
       <c r="E38" t="n">
-        <v>1303.215227044386</v>
+        <v>1303.215227044376</v>
       </c>
       <c r="F38" t="n">
-        <v>894.2358041069999</v>
+        <v>894.2358041069906</v>
       </c>
       <c r="G38" t="n">
-        <v>492.3327682960449</v>
+        <v>492.3327682960356</v>
       </c>
       <c r="H38" t="n">
-        <v>140.9600000000094</v>
+        <v>140.96</v>
       </c>
       <c r="I38" t="n">
-        <v>216.5482970397798</v>
+        <v>216.5482970397704</v>
       </c>
       <c r="J38" t="n">
-        <v>675.3654425154318</v>
+        <v>675.3654425154225</v>
       </c>
       <c r="K38" t="n">
-        <v>1794.64550419343</v>
+        <v>1415.008586083262</v>
       </c>
       <c r="L38" t="n">
-        <v>2712.238227510014</v>
+        <v>2332.601309399844</v>
       </c>
       <c r="M38" t="n">
-        <v>3194.417427023516</v>
+        <v>2814.780508913348</v>
       </c>
       <c r="N38" t="n">
-        <v>4845.157279160088</v>
+        <v>3379.82357278602</v>
       </c>
       <c r="O38" t="n">
-        <v>5755.312162100832</v>
+        <v>4289.978455726764</v>
       </c>
       <c r="P38" t="n">
-        <v>6591.179490198246</v>
+        <v>5864.602299897897</v>
       </c>
       <c r="Q38" t="n">
-        <v>7048.000000000467</v>
+        <v>6931.116362236997</v>
       </c>
       <c r="R38" t="n">
-        <v>7048.000000000467</v>
+        <v>7048</v>
       </c>
       <c r="S38" t="n">
-        <v>6684.746993155892</v>
+        <v>6683.344625183177</v>
       </c>
       <c r="T38" t="n">
-        <v>6118.115762436719</v>
+        <v>6116.713394464005</v>
       </c>
       <c r="U38" t="n">
-        <v>5462.811290515631</v>
+        <v>5462.811290515621</v>
       </c>
       <c r="V38" t="n">
-        <v>4826.598134791567</v>
+        <v>4826.598134791557</v>
       </c>
       <c r="W38" t="n">
-        <v>4181.776441881519</v>
+        <v>4181.776441881509</v>
       </c>
       <c r="X38" t="n">
-        <v>3583.51196363842</v>
+        <v>3583.51196363841</v>
       </c>
       <c r="Y38" t="n">
-        <v>3067.029708403262</v>
+        <v>3067.029708403252</v>
       </c>
     </row>
     <row r="39">
@@ -7235,76 +7235,76 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>2287.112034235913</v>
+        <v>2287.112034235904</v>
       </c>
       <c r="C39" t="n">
-        <v>1922.364647927307</v>
+        <v>1922.364647927298</v>
       </c>
       <c r="D39" t="n">
-        <v>1570.912438939729</v>
+        <v>1570.91243893972</v>
       </c>
       <c r="E39" t="n">
-        <v>1224.779007402444</v>
+        <v>1224.779007402434</v>
       </c>
       <c r="F39" t="n">
-        <v>881.7120959500426</v>
+        <v>881.7120959500332</v>
       </c>
       <c r="G39" t="n">
-        <v>555.85653274485</v>
+        <v>555.8565327448407</v>
       </c>
       <c r="H39" t="n">
-        <v>250.9899876546972</v>
+        <v>250.9899876546879</v>
       </c>
       <c r="I39" t="n">
-        <v>140.9600000000094</v>
+        <v>140.96</v>
       </c>
       <c r="J39" t="n">
-        <v>558.847529514931</v>
+        <v>558.8475295149217</v>
       </c>
       <c r="K39" t="n">
-        <v>1250.415257213088</v>
+        <v>1250.415257213079</v>
       </c>
       <c r="L39" t="n">
-        <v>2197.270784374326</v>
+        <v>2197.270784374317</v>
       </c>
       <c r="M39" t="n">
-        <v>3071.633876117185</v>
+        <v>3071.633876117176</v>
       </c>
       <c r="N39" t="n">
-        <v>4014.06020421532</v>
+        <v>4014.06020421531</v>
       </c>
       <c r="O39" t="n">
-        <v>4993.313206182058</v>
+        <v>4993.313206182049</v>
       </c>
       <c r="P39" t="n">
-        <v>5699.926775368545</v>
+        <v>5699.926775368536</v>
       </c>
       <c r="Q39" t="n">
-        <v>5925.707874249725</v>
+        <v>5925.707874249716</v>
       </c>
       <c r="R39" t="n">
-        <v>5569.989306372918</v>
+        <v>5569.989306372909</v>
       </c>
       <c r="S39" t="n">
-        <v>5159.222422432132</v>
+        <v>5159.222422432123</v>
       </c>
       <c r="T39" t="n">
-        <v>4762.564674070625</v>
+        <v>4762.564674070616</v>
       </c>
       <c r="U39" t="n">
-        <v>4358.520619043183</v>
+        <v>4358.520619043174</v>
       </c>
       <c r="V39" t="n">
-        <v>3939.822975415384</v>
+        <v>3939.822975415375</v>
       </c>
       <c r="W39" t="n">
-        <v>3503.082427021618</v>
+        <v>3503.082427021609</v>
       </c>
       <c r="X39" t="n">
-        <v>3078.978649804055</v>
+        <v>3078.978649804046</v>
       </c>
       <c r="Y39" t="n">
-        <v>2675.553000545333</v>
+        <v>2675.553000545324</v>
       </c>
     </row>
     <row r="40">
@@ -7314,76 +7314,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>140.9600000000094</v>
+        <v>140.96</v>
       </c>
       <c r="C40" t="n">
-        <v>140.9600000000094</v>
+        <v>140.96</v>
       </c>
       <c r="D40" t="n">
-        <v>140.9600000000094</v>
+        <v>140.96</v>
       </c>
       <c r="E40" t="n">
-        <v>140.9600000000094</v>
+        <v>140.96</v>
       </c>
       <c r="F40" t="n">
-        <v>140.9600000000094</v>
+        <v>140.96</v>
       </c>
       <c r="G40" t="n">
-        <v>140.9600000000094</v>
+        <v>140.96</v>
       </c>
       <c r="H40" t="n">
-        <v>140.9600000000094</v>
+        <v>140.96</v>
       </c>
       <c r="I40" t="n">
-        <v>140.9600000000094</v>
+        <v>140.96</v>
       </c>
       <c r="J40" t="n">
-        <v>290.4466099967229</v>
+        <v>290.4466099967136</v>
       </c>
       <c r="K40" t="n">
-        <v>307.841604589329</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="L40" t="n">
-        <v>307.841604589329</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="M40" t="n">
-        <v>307.841604589329</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="N40" t="n">
-        <v>307.841604589329</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="O40" t="n">
-        <v>307.841604589329</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="P40" t="n">
-        <v>307.841604589329</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="Q40" t="n">
-        <v>307.841604589329</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="R40" t="n">
-        <v>307.841604589329</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="S40" t="n">
-        <v>307.841604589329</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="T40" t="n">
-        <v>307.841604589329</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="U40" t="n">
-        <v>307.841604589329</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="V40" t="n">
-        <v>307.841604589329</v>
+        <v>140.96</v>
       </c>
       <c r="W40" t="n">
-        <v>140.9600000000094</v>
+        <v>140.96</v>
       </c>
       <c r="X40" t="n">
-        <v>140.9600000000094</v>
+        <v>140.96</v>
       </c>
       <c r="Y40" t="n">
-        <v>140.9600000000094</v>
+        <v>140.96</v>
       </c>
     </row>
     <row r="41">
@@ -7393,76 +7393,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2578.759347546596</v>
+        <v>2578.759347546128</v>
       </c>
       <c r="C41" t="n">
-        <v>2124.744622048622</v>
+        <v>2124.744622048154</v>
       </c>
       <c r="D41" t="n">
-        <v>1710.260626351804</v>
+        <v>1710.260626351336</v>
       </c>
       <c r="E41" t="n">
-        <v>1303.215227044386</v>
+        <v>1301.812859071671</v>
       </c>
       <c r="F41" t="n">
-        <v>894.2358041069999</v>
+        <v>892.8334361342853</v>
       </c>
       <c r="G41" t="n">
-        <v>492.3327682960449</v>
+        <v>492.3327682960356</v>
       </c>
       <c r="H41" t="n">
-        <v>140.9600000000094</v>
+        <v>140.96</v>
       </c>
       <c r="I41" t="n">
-        <v>216.5482970397798</v>
+        <v>216.5482970397704</v>
       </c>
       <c r="J41" t="n">
-        <v>1101.367131735727</v>
+        <v>675.3654425154225</v>
       </c>
       <c r="K41" t="n">
-        <v>2550.716641651435</v>
+        <v>2124.71495243113</v>
       </c>
       <c r="L41" t="n">
-        <v>3797.935015773914</v>
+        <v>3681.051378010443</v>
       </c>
       <c r="M41" t="n">
-        <v>4280.114215287416</v>
+        <v>4163.230577523946</v>
       </c>
       <c r="N41" t="n">
-        <v>4845.157279160088</v>
+        <v>4728.273641396618</v>
       </c>
       <c r="O41" t="n">
-        <v>5755.312162100832</v>
+        <v>5638.428524337362</v>
       </c>
       <c r="P41" t="n">
-        <v>6591.179490198246</v>
+        <v>6474.295852434775</v>
       </c>
       <c r="Q41" t="n">
-        <v>7048.000000000467</v>
+        <v>6931.116362236997</v>
       </c>
       <c r="R41" t="n">
-        <v>7048.000000000467</v>
+        <v>7048</v>
       </c>
       <c r="S41" t="n">
-        <v>6683.344625183645</v>
+        <v>6683.344625183177</v>
       </c>
       <c r="T41" t="n">
-        <v>6116.713394464472</v>
+        <v>6116.713394464005</v>
       </c>
       <c r="U41" t="n">
-        <v>5461.408922543384</v>
+        <v>5461.408922542916</v>
       </c>
       <c r="V41" t="n">
-        <v>4825.195766819319</v>
+        <v>4825.195766818852</v>
       </c>
       <c r="W41" t="n">
-        <v>4180.374073909271</v>
+        <v>4180.374073908803</v>
       </c>
       <c r="X41" t="n">
-        <v>3582.109595666172</v>
+        <v>3582.109595665705</v>
       </c>
       <c r="Y41" t="n">
-        <v>3065.627340431014</v>
+        <v>3065.627340430547</v>
       </c>
     </row>
     <row r="42">
@@ -7472,76 +7472,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>2287.112034235913</v>
+        <v>2287.112034235904</v>
       </c>
       <c r="C42" t="n">
-        <v>1922.364647927307</v>
+        <v>1922.364647927298</v>
       </c>
       <c r="D42" t="n">
-        <v>1570.912438939729</v>
+        <v>1570.91243893972</v>
       </c>
       <c r="E42" t="n">
-        <v>1224.779007402444</v>
+        <v>1224.779007402434</v>
       </c>
       <c r="F42" t="n">
-        <v>881.7120959500426</v>
+        <v>881.7120959500332</v>
       </c>
       <c r="G42" t="n">
-        <v>555.85653274485</v>
+        <v>555.8565327448407</v>
       </c>
       <c r="H42" t="n">
-        <v>250.9899876546972</v>
+        <v>250.9899876546879</v>
       </c>
       <c r="I42" t="n">
-        <v>140.9600000000094</v>
+        <v>140.96</v>
       </c>
       <c r="J42" t="n">
-        <v>558.847529514931</v>
+        <v>558.8475295149217</v>
       </c>
       <c r="K42" t="n">
-        <v>1250.415257213088</v>
+        <v>1250.415257213079</v>
       </c>
       <c r="L42" t="n">
-        <v>2197.270784374326</v>
+        <v>2197.270784374317</v>
       </c>
       <c r="M42" t="n">
-        <v>3071.633876117185</v>
+        <v>3071.633876117176</v>
       </c>
       <c r="N42" t="n">
-        <v>4014.06020421532</v>
+        <v>4014.06020421531</v>
       </c>
       <c r="O42" t="n">
-        <v>4993.313206182058</v>
+        <v>4993.313206182049</v>
       </c>
       <c r="P42" t="n">
-        <v>5699.926775368545</v>
+        <v>5699.926775368536</v>
       </c>
       <c r="Q42" t="n">
-        <v>5925.707874249725</v>
+        <v>5925.707874249716</v>
       </c>
       <c r="R42" t="n">
-        <v>5569.989306372918</v>
+        <v>5571.538498249245</v>
       </c>
       <c r="S42" t="n">
-        <v>5157.673230555795</v>
+        <v>5159.222422432123</v>
       </c>
       <c r="T42" t="n">
-        <v>4761.015482194289</v>
+        <v>4762.564674070616</v>
       </c>
       <c r="U42" t="n">
-        <v>4356.971427166846</v>
+        <v>4358.520619043174</v>
       </c>
       <c r="V42" t="n">
-        <v>3938.273783539048</v>
+        <v>3939.822975415375</v>
       </c>
       <c r="W42" t="n">
-        <v>3503.082427021618</v>
+        <v>3503.082427021609</v>
       </c>
       <c r="X42" t="n">
-        <v>3078.978649804055</v>
+        <v>3078.978649804046</v>
       </c>
       <c r="Y42" t="n">
-        <v>2675.553000545333</v>
+        <v>2675.553000545324</v>
       </c>
     </row>
     <row r="43">
@@ -7551,76 +7551,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>140.9600000000094</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="C43" t="n">
-        <v>140.9600000000094</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="D43" t="n">
-        <v>140.9600000000094</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="E43" t="n">
-        <v>140.9600000000094</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="F43" t="n">
-        <v>140.9600000000094</v>
+        <v>140.96</v>
       </c>
       <c r="G43" t="n">
-        <v>140.9600000000094</v>
+        <v>140.96</v>
       </c>
       <c r="H43" t="n">
-        <v>140.9600000000094</v>
+        <v>140.96</v>
       </c>
       <c r="I43" t="n">
-        <v>140.9600000000094</v>
+        <v>140.96</v>
       </c>
       <c r="J43" t="n">
-        <v>290.4466099967229</v>
+        <v>290.4466099967136</v>
       </c>
       <c r="K43" t="n">
-        <v>307.841604589329</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="L43" t="n">
-        <v>307.841604589329</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="M43" t="n">
-        <v>307.841604589329</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="N43" t="n">
-        <v>307.841604589329</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="O43" t="n">
-        <v>307.841604589329</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="P43" t="n">
-        <v>307.841604589329</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="Q43" t="n">
-        <v>307.841604589329</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="R43" t="n">
-        <v>307.841604589329</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="S43" t="n">
-        <v>307.841604589329</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="T43" t="n">
-        <v>307.841604589329</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="U43" t="n">
-        <v>155.5035375626369</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="V43" t="n">
-        <v>155.5035375626369</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="W43" t="n">
-        <v>155.5035375626369</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="X43" t="n">
-        <v>155.5035375626369</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="Y43" t="n">
-        <v>140.9600000000094</v>
+        <v>307.8416045893196</v>
       </c>
     </row>
     <row r="44">
@@ -7630,76 +7630,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2578.75934754613</v>
+        <v>2580.161715518833</v>
       </c>
       <c r="C44" t="n">
-        <v>2126.146990020869</v>
+        <v>2126.146990020859</v>
       </c>
       <c r="D44" t="n">
-        <v>1711.662994324051</v>
+        <v>1711.662994324041</v>
       </c>
       <c r="E44" t="n">
-        <v>1303.215227044386</v>
+        <v>1303.215227044376</v>
       </c>
       <c r="F44" t="n">
-        <v>894.2358041069999</v>
+        <v>894.2358041069906</v>
       </c>
       <c r="G44" t="n">
-        <v>492.3327682960449</v>
+        <v>492.3327682960356</v>
       </c>
       <c r="H44" t="n">
-        <v>140.9600000000094</v>
+        <v>140.96</v>
       </c>
       <c r="I44" t="n">
-        <v>140.9600000000094</v>
+        <v>216.5482970397704</v>
       </c>
       <c r="J44" t="n">
-        <v>1025.778834695956</v>
+        <v>1101.367131735718</v>
       </c>
       <c r="K44" t="n">
-        <v>2475.128344611664</v>
+        <v>2550.716641651425</v>
       </c>
       <c r="L44" t="n">
-        <v>3392.721067928247</v>
+        <v>3797.935015773446</v>
       </c>
       <c r="M44" t="n">
-        <v>3874.90026744175</v>
+        <v>4280.114215286949</v>
       </c>
       <c r="N44" t="n">
-        <v>4439.943331314422</v>
+        <v>4845.157279159621</v>
       </c>
       <c r="O44" t="n">
-        <v>5350.098214255166</v>
+        <v>5755.312162100365</v>
       </c>
       <c r="P44" t="n">
-        <v>6591.17949019778</v>
+        <v>6591.179490197778</v>
       </c>
       <c r="Q44" t="n">
-        <v>7048.000000000002</v>
+        <v>7048</v>
       </c>
       <c r="R44" t="n">
-        <v>7048.000000000002</v>
+        <v>7048</v>
       </c>
       <c r="S44" t="n">
-        <v>6683.344625183179</v>
+        <v>6683.344625183177</v>
       </c>
       <c r="T44" t="n">
-        <v>6116.713394464006</v>
+        <v>6118.11576243671</v>
       </c>
       <c r="U44" t="n">
-        <v>5461.408922542918</v>
+        <v>5462.811290515621</v>
       </c>
       <c r="V44" t="n">
-        <v>4825.195766818853</v>
+        <v>4826.598134791557</v>
       </c>
       <c r="W44" t="n">
-        <v>4180.374073908805</v>
+        <v>4181.776441881509</v>
       </c>
       <c r="X44" t="n">
-        <v>3582.109595665706</v>
+        <v>3583.51196363841</v>
       </c>
       <c r="Y44" t="n">
-        <v>3065.627340430548</v>
+        <v>3067.029708403252</v>
       </c>
     </row>
     <row r="45">
@@ -7709,76 +7709,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>2287.112034235913</v>
+        <v>2287.112034235904</v>
       </c>
       <c r="C45" t="n">
-        <v>1922.364647927307</v>
+        <v>1922.364647927298</v>
       </c>
       <c r="D45" t="n">
-        <v>1570.912438939729</v>
+        <v>1570.91243893972</v>
       </c>
       <c r="E45" t="n">
-        <v>1224.779007402444</v>
+        <v>1224.779007402434</v>
       </c>
       <c r="F45" t="n">
-        <v>881.7120959500426</v>
+        <v>881.7120959500332</v>
       </c>
       <c r="G45" t="n">
-        <v>555.85653274485</v>
+        <v>555.8565327448407</v>
       </c>
       <c r="H45" t="n">
-        <v>250.9899876546972</v>
+        <v>250.9899876546879</v>
       </c>
       <c r="I45" t="n">
-        <v>140.9600000000094</v>
+        <v>140.96</v>
       </c>
       <c r="J45" t="n">
-        <v>558.847529514931</v>
+        <v>558.8475295149217</v>
       </c>
       <c r="K45" t="n">
-        <v>1250.415257213088</v>
+        <v>1250.415257213079</v>
       </c>
       <c r="L45" t="n">
-        <v>2197.270784374326</v>
+        <v>2197.270784374317</v>
       </c>
       <c r="M45" t="n">
-        <v>3071.633876117185</v>
+        <v>3071.633876117176</v>
       </c>
       <c r="N45" t="n">
-        <v>4014.06020421532</v>
+        <v>4014.06020421531</v>
       </c>
       <c r="O45" t="n">
-        <v>4993.313206182058</v>
+        <v>4993.313206182049</v>
       </c>
       <c r="P45" t="n">
-        <v>5699.926775368545</v>
+        <v>5699.926775368536</v>
       </c>
       <c r="Q45" t="n">
-        <v>5925.707874249725</v>
+        <v>5925.707874249716</v>
       </c>
       <c r="R45" t="n">
-        <v>5571.538498249254</v>
+        <v>5569.989306372909</v>
       </c>
       <c r="S45" t="n">
-        <v>5159.222422432132</v>
+        <v>5159.222422432123</v>
       </c>
       <c r="T45" t="n">
-        <v>4762.564674070625</v>
+        <v>4762.564674070616</v>
       </c>
       <c r="U45" t="n">
-        <v>4358.520619043183</v>
+        <v>4358.520619043174</v>
       </c>
       <c r="V45" t="n">
-        <v>3939.822975415384</v>
+        <v>3939.822975415375</v>
       </c>
       <c r="W45" t="n">
-        <v>3503.082427021618</v>
+        <v>3503.082427021609</v>
       </c>
       <c r="X45" t="n">
-        <v>3078.978649804055</v>
+        <v>3078.978649804046</v>
       </c>
       <c r="Y45" t="n">
-        <v>2675.553000545333</v>
+        <v>2675.553000545324</v>
       </c>
     </row>
     <row r="46">
@@ -7788,76 +7788,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>307.841604589329</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="C46" t="n">
-        <v>307.841604589329</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="D46" t="n">
-        <v>307.841604589329</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="E46" t="n">
-        <v>307.841604589329</v>
+        <v>140.96</v>
       </c>
       <c r="F46" t="n">
-        <v>307.841604589329</v>
+        <v>140.96</v>
       </c>
       <c r="G46" t="n">
-        <v>140.9600000000094</v>
+        <v>140.96</v>
       </c>
       <c r="H46" t="n">
-        <v>140.9600000000094</v>
+        <v>140.96</v>
       </c>
       <c r="I46" t="n">
-        <v>140.9600000000094</v>
+        <v>140.96</v>
       </c>
       <c r="J46" t="n">
-        <v>290.4466099967229</v>
+        <v>290.4466099967136</v>
       </c>
       <c r="K46" t="n">
-        <v>307.841604589329</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="L46" t="n">
-        <v>307.841604589329</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="M46" t="n">
-        <v>307.841604589329</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="N46" t="n">
-        <v>307.841604589329</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="O46" t="n">
-        <v>307.841604589329</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="P46" t="n">
-        <v>307.841604589329</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="Q46" t="n">
-        <v>307.841604589329</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="R46" t="n">
-        <v>307.841604589329</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="S46" t="n">
-        <v>307.841604589329</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="T46" t="n">
-        <v>307.841604589329</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="U46" t="n">
-        <v>307.841604589329</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="V46" t="n">
-        <v>307.841604589329</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="W46" t="n">
-        <v>307.841604589329</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="X46" t="n">
-        <v>307.841604589329</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="Y46" t="n">
-        <v>307.841604589329</v>
+        <v>307.8416045893196</v>
       </c>
     </row>
   </sheetData>
@@ -7987,7 +7987,7 @@
         <v>430.3047365861567</v>
       </c>
       <c r="K2" t="n">
-        <v>716.8751175230994</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -8002,13 +8002,13 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>870.5779326741233</v>
       </c>
       <c r="Q2" t="n">
-        <v>332.9552028337782</v>
+        <v>61.18810711406093</v>
       </c>
       <c r="R2" t="n">
-        <v>176.4768357656695</v>
+        <v>294.54111633436</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -8221,16 +8221,16 @@
         <v>120.6470157237802</v>
       </c>
       <c r="J5" t="n">
-        <v>430.3047365861567</v>
+        <v>0</v>
       </c>
       <c r="K5" t="n">
-        <v>716.8751175230994</v>
+        <v>0</v>
       </c>
       <c r="L5" t="n">
-        <v>332.9552028337775</v>
+        <v>301.799730824009</v>
       </c>
       <c r="M5" t="n">
-        <v>0</v>
+        <v>1060.271045550332</v>
       </c>
       <c r="N5" t="n">
         <v>0</v>
@@ -8245,7 +8245,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>176.4768357656695</v>
+        <v>294.54111633436</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -8461,13 +8461,13 @@
         <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>419.8640113927013</v>
+        <v>0</v>
       </c>
       <c r="L8" t="n">
         <v>0</v>
       </c>
       <c r="M8" t="n">
-        <v>1060.271045550332</v>
+        <v>491.4928437002175</v>
       </c>
       <c r="N8" t="n">
         <v>0</v>
@@ -8476,13 +8476,13 @@
         <v>0</v>
       </c>
       <c r="P8" t="n">
-        <v>0</v>
+        <v>870.5779326741233</v>
       </c>
       <c r="Q8" t="n">
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>176.4768357656695</v>
+        <v>294.54111633436</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -8698,7 +8698,7 @@
         <v>430.3047365861567</v>
       </c>
       <c r="K11" t="n">
-        <v>716.8751175230994</v>
+        <v>0</v>
       </c>
       <c r="L11" t="n">
         <v>0</v>
@@ -8713,13 +8713,13 @@
         <v>0</v>
       </c>
       <c r="P11" t="n">
-        <v>0</v>
+        <v>870.5779326741233</v>
       </c>
       <c r="Q11" t="n">
-        <v>332.955202833816</v>
+        <v>61.18810711406093</v>
       </c>
       <c r="R11" t="n">
-        <v>176.4768357656695</v>
+        <v>294.54111633436</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -8929,19 +8929,19 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>44.29520053209296</v>
+        <v>120.6470157237802</v>
       </c>
       <c r="J14" t="n">
         <v>430.3047365861567</v>
       </c>
       <c r="K14" t="n">
-        <v>716.8751175230994</v>
+        <v>0</v>
       </c>
       <c r="L14" t="n">
         <v>0</v>
       </c>
       <c r="M14" t="n">
-        <v>0</v>
+        <v>315.9139665186111</v>
       </c>
       <c r="N14" t="n">
         <v>0</v>
@@ -8953,7 +8953,7 @@
         <v>0</v>
       </c>
       <c r="Q14" t="n">
-        <v>291.2427374567748</v>
+        <v>615.8520732695737</v>
       </c>
       <c r="R14" t="n">
         <v>294.54111633436</v>
@@ -9172,28 +9172,28 @@
         <v>430.3047365861567</v>
       </c>
       <c r="K17" t="n">
-        <v>716.8751175230994</v>
+        <v>0</v>
       </c>
       <c r="L17" t="n">
-        <v>332.9552028337775</v>
+        <v>0</v>
       </c>
       <c r="M17" t="n">
         <v>0</v>
       </c>
       <c r="N17" t="n">
-        <v>0</v>
+        <v>61.18810711406104</v>
       </c>
       <c r="O17" t="n">
         <v>0</v>
       </c>
       <c r="P17" t="n">
-        <v>0</v>
+        <v>870.5779326741233</v>
       </c>
       <c r="Q17" t="n">
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>176.4768357656695</v>
+        <v>294.54111633436</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9403,19 +9403,19 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>44.29520053209296</v>
+        <v>120.6470157237802</v>
       </c>
       <c r="J20" t="n">
         <v>430.3047365861567</v>
       </c>
       <c r="K20" t="n">
-        <v>716.8751175230994</v>
+        <v>0</v>
       </c>
       <c r="L20" t="n">
         <v>0</v>
       </c>
       <c r="M20" t="n">
-        <v>0</v>
+        <v>931.766039788187</v>
       </c>
       <c r="N20" t="n">
         <v>0</v>
@@ -9424,13 +9424,13 @@
         <v>0</v>
       </c>
       <c r="P20" t="n">
-        <v>409.3070180254645</v>
+        <v>0</v>
       </c>
       <c r="Q20" t="n">
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>176.4768357656695</v>
+        <v>294.54111633436</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9640,7 +9640,7 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>44.29520053209296</v>
+        <v>120.6470157237802</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -9649,25 +9649,25 @@
         <v>0</v>
       </c>
       <c r="L23" t="n">
-        <v>496.2158265843882</v>
+        <v>0</v>
       </c>
       <c r="M23" t="n">
-        <v>1060.271045550332</v>
+        <v>0</v>
       </c>
       <c r="N23" t="n">
-        <v>0</v>
+        <v>1096.663422488788</v>
       </c>
       <c r="O23" t="n">
         <v>0</v>
       </c>
       <c r="P23" t="n">
-        <v>0</v>
+        <v>265.4073538855546</v>
       </c>
       <c r="Q23" t="n">
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>176.4768357656695</v>
+        <v>294.54111633436</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9880,13 +9880,13 @@
         <v>120.6470157237802</v>
       </c>
       <c r="J26" t="n">
-        <v>430.3047365861567</v>
+        <v>0</v>
       </c>
       <c r="K26" t="n">
         <v>716.8751175230994</v>
       </c>
       <c r="L26" t="n">
-        <v>332.9552028342378</v>
+        <v>0</v>
       </c>
       <c r="M26" t="n">
         <v>0</v>
@@ -9895,16 +9895,16 @@
         <v>0</v>
       </c>
       <c r="O26" t="n">
-        <v>0</v>
+        <v>29.34358558166855</v>
       </c>
       <c r="P26" t="n">
         <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>0</v>
+        <v>615.8520732695737</v>
       </c>
       <c r="R26" t="n">
-        <v>176.4768357656695</v>
+        <v>294.54111633436</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -10117,13 +10117,13 @@
         <v>120.6470157237802</v>
       </c>
       <c r="J29" t="n">
-        <v>430.3047365861567</v>
+        <v>0</v>
       </c>
       <c r="K29" t="n">
-        <v>716.8751175230994</v>
+        <v>0</v>
       </c>
       <c r="L29" t="n">
-        <v>332.9552028342378</v>
+        <v>0</v>
       </c>
       <c r="M29" t="n">
         <v>0</v>
@@ -10135,13 +10135,13 @@
         <v>0</v>
       </c>
       <c r="P29" t="n">
-        <v>0</v>
+        <v>746.218703104767</v>
       </c>
       <c r="Q29" t="n">
-        <v>0</v>
+        <v>615.8520732695737</v>
       </c>
       <c r="R29" t="n">
-        <v>176.4768357656695</v>
+        <v>294.54111633436</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10351,22 +10351,22 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>44.29520053209296</v>
+        <v>120.6470157237802</v>
       </c>
       <c r="J32" t="n">
         <v>430.3047365861567</v>
       </c>
       <c r="K32" t="n">
-        <v>716.8751175230994</v>
+        <v>0</v>
       </c>
       <c r="L32" t="n">
-        <v>409.3070180259256</v>
+        <v>0</v>
       </c>
       <c r="M32" t="n">
         <v>0</v>
       </c>
       <c r="N32" t="n">
-        <v>0</v>
+        <v>931.7660397881868</v>
       </c>
       <c r="O32" t="n">
         <v>0</v>
@@ -10378,7 +10378,7 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>176.4768357656695</v>
+        <v>294.54111633436</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10588,25 +10588,25 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>44.29520053209296</v>
+        <v>120.6470157237802</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
       </c>
       <c r="K35" t="n">
-        <v>716.8751175230994</v>
+        <v>0</v>
       </c>
       <c r="L35" t="n">
         <v>0</v>
       </c>
       <c r="M35" t="n">
-        <v>839.6117546120817</v>
+        <v>0</v>
       </c>
       <c r="N35" t="n">
-        <v>0</v>
+        <v>1096.663422488788</v>
       </c>
       <c r="O35" t="n">
-        <v>0</v>
+        <v>265.407353885553</v>
       </c>
       <c r="P35" t="n">
         <v>0</v>
@@ -10615,7 +10615,7 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>176.4768357656695</v>
+        <v>294.54111633436</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10831,7 +10831,7 @@
         <v>0</v>
       </c>
       <c r="K38" t="n">
-        <v>383.4716344547065</v>
+        <v>0</v>
       </c>
       <c r="L38" t="n">
         <v>0</v>
@@ -10840,19 +10840,19 @@
         <v>0</v>
       </c>
       <c r="N38" t="n">
-        <v>1096.663422488788</v>
+        <v>0</v>
       </c>
       <c r="O38" t="n">
         <v>0</v>
       </c>
       <c r="P38" t="n">
-        <v>0</v>
+        <v>746.218703104767</v>
       </c>
       <c r="Q38" t="n">
-        <v>0</v>
+        <v>615.8520732695737</v>
       </c>
       <c r="R38" t="n">
-        <v>176.4768357656695</v>
+        <v>294.54111633436</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -11065,13 +11065,13 @@
         <v>120.6470157237802</v>
       </c>
       <c r="J41" t="n">
-        <v>430.3047365861567</v>
+        <v>0</v>
       </c>
       <c r="K41" t="n">
         <v>716.8751175230994</v>
       </c>
       <c r="L41" t="n">
-        <v>332.9552028342378</v>
+        <v>645.1956588512421</v>
       </c>
       <c r="M41" t="n">
         <v>0</v>
@@ -11089,7 +11089,7 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>176.4768357656695</v>
+        <v>294.54111633436</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11299,7 +11299,7 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>44.29520053209296</v>
+        <v>120.6470157237802</v>
       </c>
       <c r="J44" t="n">
         <v>430.3047365861567</v>
@@ -11308,7 +11308,7 @@
         <v>716.8751175230994</v>
       </c>
       <c r="L44" t="n">
-        <v>0</v>
+        <v>332.9552028337757</v>
       </c>
       <c r="M44" t="n">
         <v>0</v>
@@ -11320,7 +11320,7 @@
         <v>0</v>
       </c>
       <c r="P44" t="n">
-        <v>409.3070180254551</v>
+        <v>0</v>
       </c>
       <c r="Q44" t="n">
         <v>0</v>
@@ -23281,7 +23281,7 @@
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>1.388344292938598</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -23317,7 +23317,7 @@
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>1.38834429297799</v>
       </c>
       <c r="U11" t="n">
         <v>0</v>
@@ -23421,7 +23421,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>287.1138003370787</v>
+        <v>121.9010117936523</v>
       </c>
       <c r="C13" t="n">
         <v>272.7252466480447</v>
@@ -23439,7 +23439,7 @@
         <v>242.4092826775956</v>
       </c>
       <c r="H13" t="n">
-        <v>40.13443591884791</v>
+        <v>205.3472244622743</v>
       </c>
       <c r="I13" t="n">
         <v>97.40414414470841</v>
@@ -23515,10 +23515,10 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>1.388344292978218</v>
       </c>
       <c r="H14" t="n">
-        <v>1.388344292976399</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -23664,7 +23664,7 @@
         <v>272.7252466480447</v>
       </c>
       <c r="D16" t="n">
-        <v>120.3234295121291</v>
+        <v>285.5362180555555</v>
       </c>
       <c r="E16" t="n">
         <v>280.9809048369565</v>
@@ -23676,7 +23676,7 @@
         <v>242.4092826775956</v>
       </c>
       <c r="H16" t="n">
-        <v>205.3472244622743</v>
+        <v>40.13443591884794</v>
       </c>
       <c r="I16" t="n">
         <v>97.40414414470841</v>
@@ -23755,7 +23755,7 @@
         <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>1.388344292978218</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -23788,7 +23788,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>1.388344292976512</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
         <v>0</v>
@@ -23904,19 +23904,19 @@
         <v>285.5362180555555</v>
       </c>
       <c r="E19" t="n">
-        <v>213.1722604382385</v>
+        <v>280.9809048369565</v>
       </c>
       <c r="F19" t="n">
         <v>274.3828559677419</v>
       </c>
       <c r="G19" t="n">
-        <v>242.4092826775956</v>
+        <v>77.1964941341692</v>
       </c>
       <c r="H19" t="n">
         <v>205.3472244622743</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>97.40414414470841</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23986,13 +23986,13 @@
         <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>1.388344292976456</v>
+        <v>0</v>
       </c>
       <c r="G20" t="n">
         <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>1.388344292976399</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -24150,7 +24150,7 @@
         <v>242.4092826775956</v>
       </c>
       <c r="H22" t="n">
-        <v>40.13443591884791</v>
+        <v>205.3472244622743</v>
       </c>
       <c r="I22" t="n">
         <v>97.40414414470841</v>
@@ -24198,7 +24198,7 @@
         <v>226.3728098387097</v>
       </c>
       <c r="X22" t="n">
-        <v>247.4436454301076</v>
+        <v>82.23085688668115</v>
       </c>
       <c r="Y22" t="n">
         <v>287.4653528494624</v>
@@ -24369,7 +24369,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>121.9010117936522</v>
+        <v>287.1138003370787</v>
       </c>
       <c r="C25" t="n">
         <v>272.7252466480447</v>
@@ -24387,7 +24387,7 @@
         <v>242.4092826775956</v>
       </c>
       <c r="H25" t="n">
-        <v>205.3472244622743</v>
+        <v>40.13443591884794</v>
       </c>
       <c r="I25" t="n">
         <v>97.40414414470841</v>
@@ -24466,7 +24466,7 @@
         <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>1.388344292524607</v>
+        <v>1.388344292978218</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -24621,10 +24621,10 @@
         <v>274.3828559677419</v>
       </c>
       <c r="G28" t="n">
-        <v>77.19649413416917</v>
+        <v>242.4092826775956</v>
       </c>
       <c r="H28" t="n">
-        <v>205.3472244622743</v>
+        <v>40.13443591884794</v>
       </c>
       <c r="I28" t="n">
         <v>97.40414414470841</v>
@@ -24700,7 +24700,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>1.388344290755072</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -24745,7 +24745,7 @@
         <v>0</v>
       </c>
       <c r="V29" t="n">
-        <v>1.388344290130249</v>
+        <v>0</v>
       </c>
       <c r="W29" t="n">
         <v>0</v>
@@ -24812,10 +24812,10 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>1.533699956736029</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
-        <v>0</v>
+        <v>1.533699956400426</v>
       </c>
       <c r="T30" t="n">
         <v>0</v>
@@ -24843,7 +24843,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>121.9010117936522</v>
+        <v>287.1138003370787</v>
       </c>
       <c r="C31" t="n">
         <v>272.7252466480447</v>
@@ -24858,7 +24858,7 @@
         <v>274.3828559677419</v>
       </c>
       <c r="G31" t="n">
-        <v>242.4092826775956</v>
+        <v>77.1964941341692</v>
       </c>
       <c r="H31" t="n">
         <v>205.3472244622743</v>
@@ -24940,7 +24940,7 @@
         <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>1.388344292524607</v>
+        <v>1.388344292976399</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -25049,10 +25049,10 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>1.53369995757339</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
-        <v>0</v>
+        <v>1.533699957572765</v>
       </c>
       <c r="T33" t="n">
         <v>0</v>
@@ -25098,7 +25098,7 @@
         <v>242.4092826775956</v>
       </c>
       <c r="H34" t="n">
-        <v>40.13443591884791</v>
+        <v>40.13443591884794</v>
       </c>
       <c r="I34" t="n">
         <v>97.40414414470841</v>
@@ -25210,7 +25210,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>1.388344292978275</v>
       </c>
       <c r="T35" t="n">
         <v>0</v>
@@ -25222,7 +25222,7 @@
         <v>0</v>
       </c>
       <c r="W35" t="n">
-        <v>1.388344292525176</v>
+        <v>0</v>
       </c>
       <c r="X35" t="n">
         <v>0</v>
@@ -25326,7 +25326,7 @@
         <v>285.5362180555555</v>
       </c>
       <c r="E37" t="n">
-        <v>280.9809048369565</v>
+        <v>115.7681162935301</v>
       </c>
       <c r="F37" t="n">
         <v>274.3828559677419</v>
@@ -25335,7 +25335,7 @@
         <v>242.4092826775956</v>
       </c>
       <c r="H37" t="n">
-        <v>40.13443591884791</v>
+        <v>205.3472244622743</v>
       </c>
       <c r="I37" t="n">
         <v>97.40414414470841</v>
@@ -25447,13 +25447,13 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>1.388344292524494</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
         <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>0</v>
+        <v>1.388344292977649</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -25614,10 +25614,10 @@
         <v>150.8146863564251</v>
       </c>
       <c r="V40" t="n">
-        <v>199.1703102162162</v>
+        <v>33.9575216727898</v>
       </c>
       <c r="W40" t="n">
-        <v>61.16002129528326</v>
+        <v>226.3728098387097</v>
       </c>
       <c r="X40" t="n">
         <v>247.4436454301076</v>
@@ -25642,13 +25642,13 @@
         <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>1.388344292524891</v>
+        <v>0</v>
       </c>
       <c r="F41" t="n">
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>1.388344292978218</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -25760,7 +25760,7 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>1.53369995757339</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -25775,7 +25775,7 @@
         <v>0</v>
       </c>
       <c r="W42" t="n">
-        <v>1.533699957572821</v>
+        <v>0</v>
       </c>
       <c r="X42" t="n">
         <v>0</v>
@@ -25803,7 +25803,7 @@
         <v>280.9809048369565</v>
       </c>
       <c r="F43" t="n">
-        <v>274.3828559677419</v>
+        <v>109.1700674243155</v>
       </c>
       <c r="G43" t="n">
         <v>242.4092826775956</v>
@@ -25848,7 +25848,7 @@
         <v>198.7676812603561</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>150.8146863564251</v>
       </c>
       <c r="V43" t="n">
         <v>199.1703102162162</v>
@@ -25860,7 +25860,7 @@
         <v>247.4436454301076</v>
       </c>
       <c r="Y43" t="n">
-        <v>273.067250662461</v>
+        <v>287.4653528494624</v>
       </c>
     </row>
     <row r="44">
@@ -25873,7 +25873,7 @@
         <v>0</v>
       </c>
       <c r="C44" t="n">
-        <v>1.388344292985607</v>
+        <v>0</v>
       </c>
       <c r="D44" t="n">
         <v>0</v>
@@ -25924,7 +25924,7 @@
         <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>1.38834429297799</v>
       </c>
       <c r="U44" t="n">
         <v>0</v>
@@ -25997,10 +25997,10 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>1.53369995757339</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
-        <v>0</v>
+        <v>1.533699957572765</v>
       </c>
       <c r="T45" t="n">
         <v>0</v>
@@ -26037,13 +26037,13 @@
         <v>285.5362180555555</v>
       </c>
       <c r="E46" t="n">
-        <v>280.9809048369565</v>
+        <v>115.7681162935301</v>
       </c>
       <c r="F46" t="n">
         <v>274.3828559677419</v>
       </c>
       <c r="G46" t="n">
-        <v>77.19649413416917</v>
+        <v>242.4092826775956</v>
       </c>
       <c r="H46" t="n">
         <v>205.3472244622743</v>
@@ -26131,7 +26131,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>15096.00000993378</v>
+        <v>1240465.351388876</v>
       </c>
     </row>
     <row r="3">
@@ -26139,7 +26139,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>30103.21645018751</v>
+        <v>2468357.965713155</v>
       </c>
     </row>
     <row r="4">
@@ -26147,7 +26147,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>45110.43289044122</v>
+        <v>3696250.580037436</v>
       </c>
     </row>
     <row r="5">
@@ -26155,7 +26155,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>62191.16103297014</v>
+        <v>4796092.45366189</v>
       </c>
     </row>
     <row r="6">
@@ -26163,7 +26163,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>79271.88917549908</v>
+        <v>5895934.327286342</v>
       </c>
     </row>
     <row r="7">
@@ -26171,7 +26171,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>96352.617318028</v>
+        <v>6995776.200910789</v>
       </c>
     </row>
     <row r="8">
@@ -26179,7 +26179,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>113433.3454605569</v>
+        <v>8095618.074535232</v>
       </c>
     </row>
     <row r="9">
@@ -26187,7 +26187,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>130514.0736030859</v>
+        <v>9195459.948159676</v>
       </c>
     </row>
     <row r="10">
@@ -26195,7 +26195,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>147594.8017456148</v>
+        <v>10295301.82178412</v>
       </c>
     </row>
     <row r="11">
@@ -26203,7 +26203,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>164675.5298881428</v>
+        <v>11395143.69540879</v>
       </c>
     </row>
     <row r="12">
@@ -26211,7 +26211,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>181756.2580306717</v>
+        <v>12494985.56903323</v>
       </c>
     </row>
     <row r="13">
@@ -26219,7 +26219,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>198836.9861732007</v>
+        <v>13594827.44265768</v>
       </c>
     </row>
     <row r="14">
@@ -26227,7 +26227,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>215917.7143157298</v>
+        <v>14694669.31628215</v>
       </c>
     </row>
     <row r="15">
@@ -26235,7 +26235,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>232998.4424582589</v>
+        <v>15794511.18990661</v>
       </c>
     </row>
     <row r="16">
@@ -26243,7 +26243,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>250079.1706007881</v>
+        <v>16894353.06353107</v>
       </c>
     </row>
   </sheetData>
@@ -26319,7 +26319,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>976017.2062577606</v>
+        <v>976017.2062577609</v>
       </c>
       <c r="C2" t="n">
         <v>976017.2062577608</v>
@@ -26328,40 +26328,40 @@
         <v>976017.2062577606</v>
       </c>
       <c r="E2" t="n">
-        <v>874233.2841630271</v>
+        <v>874233.2841630247</v>
       </c>
       <c r="F2" t="n">
+        <v>874233.2841630246</v>
+      </c>
+      <c r="G2" t="n">
+        <v>874233.2841630246</v>
+      </c>
+      <c r="H2" t="n">
         <v>874233.2841630249</v>
       </c>
-      <c r="G2" t="n">
+      <c r="I2" t="n">
+        <v>874233.2841630247</v>
+      </c>
+      <c r="J2" t="n">
+        <v>874233.2841630247</v>
+      </c>
+      <c r="K2" t="n">
+        <v>874233.2841632004</v>
+      </c>
+      <c r="L2" t="n">
+        <v>874233.2841630251</v>
+      </c>
+      <c r="M2" t="n">
         <v>874233.2841630249</v>
       </c>
-      <c r="H2" t="n">
+      <c r="N2" t="n">
         <v>874233.2841630245</v>
       </c>
-      <c r="I2" t="n">
+      <c r="O2" t="n">
+        <v>874233.2841630247</v>
+      </c>
+      <c r="P2" t="n">
         <v>874233.2841630249</v>
-      </c>
-      <c r="J2" t="n">
-        <v>874233.2841630527</v>
-      </c>
-      <c r="K2" t="n">
-        <v>874233.284163228</v>
-      </c>
-      <c r="L2" t="n">
-        <v>874233.2841630528</v>
-      </c>
-      <c r="M2" t="n">
-        <v>874233.2841630526</v>
-      </c>
-      <c r="N2" t="n">
-        <v>874233.2841630528</v>
-      </c>
-      <c r="O2" t="n">
-        <v>874233.2841630527</v>
-      </c>
-      <c r="P2" t="n">
-        <v>874233.2841630239</v>
       </c>
     </row>
     <row r="3">
@@ -26395,7 +26395,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>620224.0000000411</v>
+        <v>620224</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26423,22 +26423,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>89075.80382163516</v>
+        <v>89075.8038216352</v>
       </c>
       <c r="C4" t="n">
-        <v>88773.85276715398</v>
+        <v>88773.85276715405</v>
       </c>
       <c r="D4" t="n">
-        <v>88471.49209722099</v>
+        <v>88471.49209722105</v>
       </c>
       <c r="E4" t="n">
-        <v>13783.46259850318</v>
+        <v>13783.46259850301</v>
       </c>
       <c r="F4" t="n">
-        <v>13783.46259850302</v>
+        <v>13783.46259850301</v>
       </c>
       <c r="G4" t="n">
-        <v>13783.46259850302</v>
+        <v>13783.46259850301</v>
       </c>
       <c r="H4" t="n">
         <v>13783.46259850302</v>
@@ -26447,25 +26447,25 @@
         <v>13783.46259850302</v>
       </c>
       <c r="J4" t="n">
-        <v>13783.46259850491</v>
+        <v>13783.46259850301</v>
       </c>
       <c r="K4" t="n">
-        <v>13783.46259863019</v>
+        <v>13783.4625986288</v>
       </c>
       <c r="L4" t="n">
-        <v>13783.46259850491</v>
+        <v>13783.46259850302</v>
       </c>
       <c r="M4" t="n">
-        <v>13783.46259850491</v>
+        <v>13783.46259850301</v>
       </c>
       <c r="N4" t="n">
-        <v>13783.46259850491</v>
+        <v>13783.46259850301</v>
       </c>
       <c r="O4" t="n">
-        <v>13783.46259850491</v>
+        <v>13783.46259850301</v>
       </c>
       <c r="P4" t="n">
-        <v>13783.46259850298</v>
+        <v>13783.46259850301</v>
       </c>
     </row>
     <row r="5">
@@ -26499,25 +26499,25 @@
         <v>138979.4</v>
       </c>
       <c r="J5" t="n">
-        <v>138979.4000000071</v>
+        <v>138979.4</v>
       </c>
       <c r="K5" t="n">
-        <v>138979.4000000071</v>
+        <v>138979.4</v>
       </c>
       <c r="L5" t="n">
-        <v>138979.4000000071</v>
+        <v>138979.4</v>
       </c>
       <c r="M5" t="n">
-        <v>138979.4000000071</v>
+        <v>138979.4</v>
       </c>
       <c r="N5" t="n">
-        <v>138979.4000000071</v>
+        <v>138979.4</v>
       </c>
       <c r="O5" t="n">
-        <v>138979.4000000071</v>
+        <v>138979.4</v>
       </c>
       <c r="P5" t="n">
-        <v>138979.4000000071</v>
+        <v>138979.4</v>
       </c>
     </row>
     <row r="6">
@@ -26530,46 +26530,46 @@
         <v>-1330364.597563874</v>
       </c>
       <c r="C6" t="n">
-        <v>714636.3534906068</v>
+        <v>714636.3534906066</v>
       </c>
       <c r="D6" t="n">
-        <v>714938.7141605397</v>
+        <v>714938.7141605396</v>
       </c>
       <c r="E6" t="n">
-        <v>721470.4215645238</v>
+        <v>721470.4215645217</v>
       </c>
       <c r="F6" t="n">
+        <v>721470.4215645216</v>
+      </c>
+      <c r="G6" t="n">
+        <v>721470.4215645216</v>
+      </c>
+      <c r="H6" t="n">
         <v>721470.4215645219</v>
       </c>
-      <c r="G6" t="n">
+      <c r="I6" t="n">
+        <v>721470.4215645217</v>
+      </c>
+      <c r="J6" t="n">
+        <v>101246.4215645217</v>
+      </c>
+      <c r="K6" t="n">
+        <v>721470.4215645716</v>
+      </c>
+      <c r="L6" t="n">
+        <v>721470.4215645221</v>
+      </c>
+      <c r="M6" t="n">
         <v>721470.4215645219</v>
       </c>
-      <c r="H6" t="n">
+      <c r="N6" t="n">
         <v>721470.4215645215</v>
       </c>
-      <c r="I6" t="n">
+      <c r="O6" t="n">
+        <v>721470.4215645217</v>
+      </c>
+      <c r="P6" t="n">
         <v>721470.4215645219</v>
-      </c>
-      <c r="J6" t="n">
-        <v>101246.4215644996</v>
-      </c>
-      <c r="K6" t="n">
-        <v>721470.4215645907</v>
-      </c>
-      <c r="L6" t="n">
-        <v>721470.4215645408</v>
-      </c>
-      <c r="M6" t="n">
-        <v>721470.4215645406</v>
-      </c>
-      <c r="N6" t="n">
-        <v>721470.4215645408</v>
-      </c>
-      <c r="O6" t="n">
-        <v>721470.4215645407</v>
-      </c>
-      <c r="P6" t="n">
-        <v>721470.4215645138</v>
       </c>
     </row>
   </sheetData>
@@ -26943,25 +26943,25 @@
         <v>1762</v>
       </c>
       <c r="J4" t="n">
-        <v>1762.000000000117</v>
+        <v>1762</v>
       </c>
       <c r="K4" t="n">
-        <v>1762.000000000117</v>
+        <v>1762</v>
       </c>
       <c r="L4" t="n">
-        <v>1762.000000000117</v>
+        <v>1762</v>
       </c>
       <c r="M4" t="n">
-        <v>1762.000000000117</v>
+        <v>1762</v>
       </c>
       <c r="N4" t="n">
-        <v>1762.000000000117</v>
+        <v>1762</v>
       </c>
       <c r="O4" t="n">
-        <v>1762.000000000117</v>
+        <v>1762</v>
       </c>
       <c r="P4" t="n">
-        <v>1762.000000000117</v>
+        <v>1762</v>
       </c>
     </row>
   </sheetData>
@@ -27037,37 +27037,37 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -27144,28 +27144,28 @@
         <v>1762</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>1762.00000000011</v>
+        <v>1762</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27508,7 +27508,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1.388344292976512</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -27574,7 +27574,7 @@
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>1.38834429297799</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -27593,7 +27593,7 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>1.533699957573049</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
         <v>0</v>
@@ -27602,7 +27602,7 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>1.533699957572992</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -27690,10 +27690,10 @@
         <v>97.40414414470841</v>
       </c>
       <c r="J4" t="n">
+        <v>0</v>
+      </c>
+      <c r="K4" t="n">
         <v>151.1650359809837</v>
-      </c>
-      <c r="K4" t="n">
-        <v>0</v>
       </c>
       <c r="L4" t="n">
         <v>31.85592323974635</v>
@@ -27763,7 +27763,7 @@
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>1.388344292976399</v>
+        <v>1.388344292978218</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -27842,10 +27842,10 @@
         <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>1.533699957573049</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>1.533699957573035</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -27918,7 +27918,7 @@
         <v>274.3828559677419</v>
       </c>
       <c r="G7" t="n">
-        <v>242.4092826775956</v>
+        <v>393.5743186585793</v>
       </c>
       <c r="H7" t="n">
         <v>205.3472244622743</v>
@@ -27936,7 +27936,7 @@
         <v>31.85592323974635</v>
       </c>
       <c r="M7" t="n">
-        <v>258.8126637769763</v>
+        <v>107.6476277959926</v>
       </c>
       <c r="N7" t="n">
         <v>168.0209277307011</v>
@@ -28048,10 +28048,10 @@
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>1.38834429297799</v>
       </c>
       <c r="Y8" t="n">
-        <v>1.388344292976342</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -28076,7 +28076,7 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0</v>
+        <v>1.533699957572992</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
@@ -28130,7 +28130,7 @@
         <v>0</v>
       </c>
       <c r="Y9" t="n">
-        <v>1.533699957573106</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -28155,7 +28155,7 @@
         <v>274.3828559677419</v>
       </c>
       <c r="G10" t="n">
-        <v>242.4092826775956</v>
+        <v>393.5743186585793</v>
       </c>
       <c r="H10" t="n">
         <v>205.3472244622743</v>
@@ -28173,7 +28173,7 @@
         <v>31.85592323974635</v>
       </c>
       <c r="M10" t="n">
-        <v>258.8126637769763</v>
+        <v>107.6476277959926</v>
       </c>
       <c r="N10" t="n">
         <v>168.0209277307011</v>
@@ -29698,7 +29698,7 @@
         <v>1.709850039333106e-10</v>
       </c>
       <c r="U29" t="n">
-        <v>1.709850039333106e-10</v>
+        <v>0</v>
       </c>
       <c r="V29" t="n">
         <v>1.709850039333106e-10</v>
@@ -29753,13 +29753,13 @@
         <v>1.709850039333106e-10</v>
       </c>
       <c r="M30" t="n">
-        <v>0</v>
+        <v>1.709850039333106e-10</v>
       </c>
       <c r="N30" t="n">
         <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>0</v>
+        <v>1.709850039333106e-10</v>
       </c>
       <c r="P30" t="n">
         <v>1.709850039333106e-10</v>
@@ -34831,7 +34831,7 @@
         <v>893.7563986827749</v>
       </c>
       <c r="K2" t="n">
-        <v>1463.98940395526</v>
+        <v>747.114286432161</v>
       </c>
       <c r="L2" t="n">
         <v>926.861336683417</v>
@@ -34846,13 +34846,13 @@
         <v>919.3483666068121</v>
       </c>
       <c r="P2" t="n">
-        <v>844.3104324216301</v>
+        <v>1714.888365095753</v>
       </c>
       <c r="Q2" t="n">
-        <v>794.3900612198606</v>
+        <v>522.6229655001433</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>118.0642805686905</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34986,10 +34986,10 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>302.1616117352398</v>
+        <v>150.9965757542561</v>
       </c>
       <c r="K4" t="n">
-        <v>17.57070160869296</v>
+        <v>168.7357375896766</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -35065,16 +35065,16 @@
         <v>76.35181519168728</v>
       </c>
       <c r="J5" t="n">
-        <v>893.7563986827749</v>
+        <v>463.4516620966183</v>
       </c>
       <c r="K5" t="n">
-        <v>1463.98940395526</v>
+        <v>747.114286432161</v>
       </c>
       <c r="L5" t="n">
-        <v>1259.816539517195</v>
+        <v>1228.661067507426</v>
       </c>
       <c r="M5" t="n">
-        <v>487.0496964782857</v>
+        <v>1547.320742028618</v>
       </c>
       <c r="N5" t="n">
         <v>570.7505695683558</v>
@@ -35089,7 +35089,7 @@
         <v>461.4348583860824</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>118.0642805686905</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35214,7 +35214,7 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>151.1650359809837</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -35232,7 +35232,7 @@
         <v>0</v>
       </c>
       <c r="M7" t="n">
-        <v>151.1650359809836</v>
+        <v>0</v>
       </c>
       <c r="N7" t="n">
         <v>0</v>
@@ -35305,13 +35305,13 @@
         <v>463.4516620966183</v>
       </c>
       <c r="K8" t="n">
-        <v>1166.978297824862</v>
+        <v>747.114286432161</v>
       </c>
       <c r="L8" t="n">
-        <v>926.8613366834172</v>
+        <v>926.861336683417</v>
       </c>
       <c r="M8" t="n">
-        <v>1547.320742028618</v>
+        <v>978.542540178503</v>
       </c>
       <c r="N8" t="n">
         <v>570.7505695683558</v>
@@ -35320,13 +35320,13 @@
         <v>919.3483666068121</v>
       </c>
       <c r="P8" t="n">
-        <v>844.3104324216301</v>
+        <v>1714.888365095753</v>
       </c>
       <c r="Q8" t="n">
         <v>461.4348583860824</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>118.0642805686905</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35451,7 +35451,7 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>151.1650359809837</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -35469,7 +35469,7 @@
         <v>0</v>
       </c>
       <c r="M10" t="n">
-        <v>151.1650359809836</v>
+        <v>0</v>
       </c>
       <c r="N10" t="n">
         <v>0</v>
@@ -35542,7 +35542,7 @@
         <v>893.7563986827749</v>
       </c>
       <c r="K11" t="n">
-        <v>1463.98940395526</v>
+        <v>747.114286432161</v>
       </c>
       <c r="L11" t="n">
         <v>926.861336683417</v>
@@ -35557,13 +35557,13 @@
         <v>919.3483666068121</v>
       </c>
       <c r="P11" t="n">
-        <v>844.3104324216301</v>
+        <v>1714.888365095753</v>
       </c>
       <c r="Q11" t="n">
-        <v>794.3900612198983</v>
+        <v>522.6229655001433</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>118.0642805686905</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35773,19 +35773,19 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>76.35181519168728</v>
       </c>
       <c r="J14" t="n">
         <v>893.7563986827749</v>
       </c>
       <c r="K14" t="n">
-        <v>1463.98940395526</v>
+        <v>747.114286432161</v>
       </c>
       <c r="L14" t="n">
         <v>926.861336683417</v>
       </c>
       <c r="M14" t="n">
-        <v>487.0496964782857</v>
+        <v>802.9636629968968</v>
       </c>
       <c r="N14" t="n">
         <v>570.7505695683558</v>
@@ -35797,7 +35797,7 @@
         <v>844.3104324216301</v>
       </c>
       <c r="Q14" t="n">
-        <v>752.6775958428572</v>
+        <v>1077.286931655656</v>
       </c>
       <c r="R14" t="n">
         <v>118.0642805686905</v>
@@ -36016,28 +36016,28 @@
         <v>893.7563986827749</v>
       </c>
       <c r="K17" t="n">
-        <v>1463.98940395526</v>
+        <v>747.114286432161</v>
       </c>
       <c r="L17" t="n">
-        <v>1259.816539517195</v>
+        <v>926.861336683417</v>
       </c>
       <c r="M17" t="n">
         <v>487.0496964782857</v>
       </c>
       <c r="N17" t="n">
-        <v>570.7505695683558</v>
+        <v>631.9386766824168</v>
       </c>
       <c r="O17" t="n">
         <v>919.3483666068121</v>
       </c>
       <c r="P17" t="n">
-        <v>844.3104324216301</v>
+        <v>1714.888365095753</v>
       </c>
       <c r="Q17" t="n">
         <v>461.4348583860824</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>118.0642805686905</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -36247,19 +36247,19 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>76.35181519168728</v>
       </c>
       <c r="J20" t="n">
         <v>893.7563986827749</v>
       </c>
       <c r="K20" t="n">
-        <v>1463.98940395526</v>
+        <v>747.114286432161</v>
       </c>
       <c r="L20" t="n">
         <v>926.861336683417</v>
       </c>
       <c r="M20" t="n">
-        <v>487.0496964782857</v>
+        <v>1418.815736266472</v>
       </c>
       <c r="N20" t="n">
         <v>570.7505695683558</v>
@@ -36268,13 +36268,13 @@
         <v>919.3483666068121</v>
       </c>
       <c r="P20" t="n">
-        <v>1253.617450447094</v>
+        <v>844.3104324216301</v>
       </c>
       <c r="Q20" t="n">
         <v>461.4348583860824</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>118.0642805686905</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36484,34 +36484,34 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>0</v>
+        <v>76.35181519168728</v>
       </c>
       <c r="J23" t="n">
         <v>463.4516620966183</v>
       </c>
       <c r="K23" t="n">
-        <v>747.1142864321608</v>
+        <v>747.114286432161</v>
       </c>
       <c r="L23" t="n">
-        <v>1423.077163267806</v>
+        <v>926.861336683417</v>
       </c>
       <c r="M23" t="n">
-        <v>1547.320742028618</v>
+        <v>487.0496964782857</v>
       </c>
       <c r="N23" t="n">
-        <v>570.7505695683558</v>
+        <v>1667.413992057144</v>
       </c>
       <c r="O23" t="n">
         <v>919.3483666068121</v>
       </c>
       <c r="P23" t="n">
-        <v>844.3104324216301</v>
+        <v>1109.717786307185</v>
       </c>
       <c r="Q23" t="n">
         <v>461.4348583860824</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>118.0642805686905</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36724,13 +36724,13 @@
         <v>76.35181519168728</v>
       </c>
       <c r="J26" t="n">
-        <v>893.7563986827749</v>
+        <v>463.4516620966183</v>
       </c>
       <c r="K26" t="n">
-        <v>1463.989403955261</v>
+        <v>1463.98940395526</v>
       </c>
       <c r="L26" t="n">
-        <v>1259.816539517655</v>
+        <v>926.861336683417</v>
       </c>
       <c r="M26" t="n">
         <v>487.0496964782857</v>
@@ -36739,16 +36739,16 @@
         <v>570.7505695683558</v>
       </c>
       <c r="O26" t="n">
-        <v>919.3483666068121</v>
+        <v>948.6919521884806</v>
       </c>
       <c r="P26" t="n">
         <v>844.3104324216301</v>
       </c>
       <c r="Q26" t="n">
-        <v>461.4348583860824</v>
+        <v>1077.286931655656</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>118.0642805686905</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36961,13 +36961,13 @@
         <v>76.35181519168728</v>
       </c>
       <c r="J29" t="n">
-        <v>893.7563986827749</v>
+        <v>463.4516620966183</v>
       </c>
       <c r="K29" t="n">
-        <v>1463.989403955261</v>
+        <v>747.114286432161</v>
       </c>
       <c r="L29" t="n">
-        <v>1259.816539517655</v>
+        <v>926.861336683417</v>
       </c>
       <c r="M29" t="n">
         <v>487.0496964782857</v>
@@ -36979,13 +36979,13 @@
         <v>919.3483666068121</v>
       </c>
       <c r="P29" t="n">
-        <v>844.3104324216301</v>
+        <v>1590.529135526397</v>
       </c>
       <c r="Q29" t="n">
-        <v>461.4348583860824</v>
+        <v>1077.286931655656</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>118.0642805686905</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -37049,13 +37049,13 @@
         <v>956.4197244054619</v>
       </c>
       <c r="M30" t="n">
-        <v>883.1950421645042</v>
+        <v>883.1950421646752</v>
       </c>
       <c r="N30" t="n">
         <v>951.9457859577115</v>
       </c>
       <c r="O30" t="n">
-        <v>989.1444464310483</v>
+        <v>989.1444464312193</v>
       </c>
       <c r="P30" t="n">
         <v>713.7510799865223</v>
@@ -37195,22 +37195,22 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>0</v>
+        <v>76.35181519168728</v>
       </c>
       <c r="J32" t="n">
         <v>893.7563986827749</v>
       </c>
       <c r="K32" t="n">
-        <v>1463.98940395526</v>
+        <v>747.114286432161</v>
       </c>
       <c r="L32" t="n">
-        <v>1336.168354709343</v>
+        <v>926.861336683417</v>
       </c>
       <c r="M32" t="n">
         <v>487.0496964782857</v>
       </c>
       <c r="N32" t="n">
-        <v>570.7505695683558</v>
+        <v>1502.516609356543</v>
       </c>
       <c r="O32" t="n">
         <v>919.3483666068121</v>
@@ -37222,7 +37222,7 @@
         <v>461.4348583860824</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>118.0642805686905</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37432,25 +37432,25 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>0</v>
+        <v>76.35181519168728</v>
       </c>
       <c r="J35" t="n">
         <v>463.4516620966183</v>
       </c>
       <c r="K35" t="n">
-        <v>1463.989403955261</v>
+        <v>747.114286432161</v>
       </c>
       <c r="L35" t="n">
-        <v>926.8613366834174</v>
+        <v>926.861336683417</v>
       </c>
       <c r="M35" t="n">
-        <v>1326.661451090367</v>
+        <v>487.0496964782857</v>
       </c>
       <c r="N35" t="n">
-        <v>570.7505695683558</v>
+        <v>1667.413992057144</v>
       </c>
       <c r="O35" t="n">
-        <v>919.3483666068121</v>
+        <v>1184.755720492365</v>
       </c>
       <c r="P35" t="n">
         <v>844.3104324216301</v>
@@ -37459,7 +37459,7 @@
         <v>461.4348583860824</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>118.0642805686905</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37675,28 +37675,28 @@
         <v>463.4516620966183</v>
       </c>
       <c r="K38" t="n">
-        <v>1130.585920886867</v>
+        <v>747.114286432161</v>
       </c>
       <c r="L38" t="n">
-        <v>926.8613366834172</v>
+        <v>926.861336683417</v>
       </c>
       <c r="M38" t="n">
         <v>487.0496964782857</v>
       </c>
       <c r="N38" t="n">
-        <v>1667.413992057144</v>
+        <v>570.7505695683558</v>
       </c>
       <c r="O38" t="n">
         <v>919.3483666068121</v>
       </c>
       <c r="P38" t="n">
-        <v>844.3104324216301</v>
+        <v>1590.529135526397</v>
       </c>
       <c r="Q38" t="n">
-        <v>461.4348583860824</v>
+        <v>1077.286931655656</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>118.0642805686905</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37909,13 +37909,13 @@
         <v>76.35181519168728</v>
       </c>
       <c r="J41" t="n">
-        <v>893.7563986827749</v>
+        <v>463.4516620966183</v>
       </c>
       <c r="K41" t="n">
-        <v>1463.989403955261</v>
+        <v>1463.98940395526</v>
       </c>
       <c r="L41" t="n">
-        <v>1259.816539517655</v>
+        <v>1572.05699553466</v>
       </c>
       <c r="M41" t="n">
         <v>487.0496964782857</v>
@@ -37933,7 +37933,7 @@
         <v>461.4348583860824</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>118.0642805686905</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -38143,7 +38143,7 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>76.35181519168728</v>
       </c>
       <c r="J44" t="n">
         <v>893.7563986827749</v>
@@ -38152,7 +38152,7 @@
         <v>1463.98940395526</v>
       </c>
       <c r="L44" t="n">
-        <v>926.861336683417</v>
+        <v>1259.816539517193</v>
       </c>
       <c r="M44" t="n">
         <v>487.0496964782857</v>
@@ -38164,7 +38164,7 @@
         <v>919.3483666068121</v>
       </c>
       <c r="P44" t="n">
-        <v>1253.617450447085</v>
+        <v>844.3104324216301</v>
       </c>
       <c r="Q44" t="n">
         <v>461.4348583860824</v>
